--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_17_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_17_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>454988.0442605983</v>
+        <v>453254.5631469552</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6049179.212228711</v>
+        <v>6049179.212228714</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>303.3026304363736</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,16 +1376,16 @@
         <v>275.251830393576</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>302.4991588451548</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>99.86670757621053</v>
       </c>
       <c r="G11" t="n">
-        <v>333.0902356170842</v>
+        <v>333.0902356170841</v>
       </c>
       <c r="H11" t="n">
-        <v>231.5596978048558</v>
+        <v>231.5596978048557</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>66.21019719500373</v>
       </c>
       <c r="T11" t="n">
-        <v>104.5809012168532</v>
+        <v>131.4895384249673</v>
       </c>
       <c r="U11" t="n">
-        <v>171.6919384270541</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>248.321047243028</v>
+        <v>248.3210472430279</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>269.809757490306</v>
       </c>
       <c r="X11" t="n">
-        <v>290.2998894513621</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>306.8067274289467</v>
+        <v>306.8067274289466</v>
       </c>
     </row>
     <row r="12">
@@ -1449,10 +1449,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>93.27728776120875</v>
       </c>
       <c r="D12" t="n">
-        <v>68.01385433753182</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1467,7 +1467,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>38.16086372859611</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,25 +1494,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.763751642754514</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S12" t="n">
-        <v>76.92252626511619</v>
+        <v>144.0419631757947</v>
       </c>
       <c r="T12" t="n">
-        <v>114.7353427130815</v>
+        <v>194.1665539401884</v>
       </c>
       <c r="U12" t="n">
-        <v>225.843479337428</v>
+        <v>199.9943899252585</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>153.3693759223183</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>126.3417739763705</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>100.4007689548304</v>
+        <v>100.4007689548303</v>
       </c>
       <c r="C13" t="n">
-        <v>87.81560987152091</v>
+        <v>87.81560987152085</v>
       </c>
       <c r="D13" t="n">
-        <v>69.18426179110543</v>
+        <v>69.18426179110537</v>
       </c>
       <c r="E13" t="n">
-        <v>67.00275141946224</v>
+        <v>67.00275141946219</v>
       </c>
       <c r="F13" t="n">
-        <v>65.98983679582432</v>
+        <v>65.98983679582426</v>
       </c>
       <c r="G13" t="n">
-        <v>87.31217688571735</v>
+        <v>87.31217688571729</v>
       </c>
       <c r="H13" t="n">
-        <v>71.70374093278247</v>
+        <v>71.70374093278242</v>
       </c>
       <c r="I13" t="n">
-        <v>38.50079242234363</v>
+        <v>38.50079242234358</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.76594105089782</v>
+        <v>41.76594105089779</v>
       </c>
       <c r="S13" t="n">
         <v>122.8432739200354</v>
@@ -1585,16 +1585,16 @@
         <v>206.8197676978039</v>
       </c>
       <c r="V13" t="n">
-        <v>172.7064320967211</v>
+        <v>172.706432096721</v>
       </c>
       <c r="W13" t="n">
-        <v>207.0917871094841</v>
+        <v>207.091787109484</v>
       </c>
       <c r="X13" t="n">
         <v>146.2784441619302</v>
       </c>
       <c r="Y13" t="n">
-        <v>139.1534421249879</v>
+        <v>139.1534421249878</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>279.2334012600374</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>302.4991588451549</v>
       </c>
       <c r="F14" t="n">
         <v>327.4448345146045</v>
@@ -1622,10 +1622,10 @@
         <v>333.0902356170842</v>
       </c>
       <c r="H14" t="n">
-        <v>231.5596978048558</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>23.81896975173338</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.21019719500376</v>
+        <v>66.21019719500373</v>
       </c>
       <c r="T14" t="n">
         <v>131.4895384249674</v>
       </c>
       <c r="U14" t="n">
-        <v>171.6919384270541</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>248.321047243028</v>
       </c>
       <c r="W14" t="n">
-        <v>134.1718221604939</v>
+        <v>269.8097574903061</v>
       </c>
       <c r="X14" t="n">
-        <v>290.2998894513621</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>306.8067274289467</v>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>87.1019724227604</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1692,19 +1692,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>78.21386922829402</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>65.63800116627695</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>56.42418423419253</v>
+        <v>56.42418423419252</v>
       </c>
       <c r="H15" t="n">
-        <v>79.77798371441453</v>
+        <v>18.43211025672106</v>
       </c>
       <c r="I15" t="n">
-        <v>38.1608637285961</v>
+        <v>38.16086372859611</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>7.763751642754528</v>
       </c>
       <c r="S15" t="n">
         <v>144.0419631757947</v>
       </c>
       <c r="T15" t="n">
-        <v>194.1665539401884</v>
+        <v>168.3174645280191</v>
       </c>
       <c r="U15" t="n">
         <v>225.843479337428</v>
@@ -1765,25 +1765,25 @@
         <v>100.4007689548304</v>
       </c>
       <c r="C16" t="n">
-        <v>87.81560987152091</v>
+        <v>87.81560987152089</v>
       </c>
       <c r="D16" t="n">
-        <v>69.18426179110543</v>
+        <v>69.18426179110541</v>
       </c>
       <c r="E16" t="n">
-        <v>67.00275141946224</v>
+        <v>67.00275141946223</v>
       </c>
       <c r="F16" t="n">
-        <v>65.98983679582432</v>
+        <v>65.9898367958243</v>
       </c>
       <c r="G16" t="n">
-        <v>87.31217688571735</v>
+        <v>87.31217688571734</v>
       </c>
       <c r="H16" t="n">
         <v>71.70374093278247</v>
       </c>
       <c r="I16" t="n">
-        <v>38.50079242234363</v>
+        <v>38.50079242234361</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>43.97309655957665</v>
+        <v>223.8714192092666</v>
       </c>
       <c r="C17" t="n">
-        <v>206.4104693167937</v>
+        <v>206.4104693167936</v>
       </c>
       <c r="D17" t="n">
-        <v>195.8206191664691</v>
+        <v>195.820619166469</v>
       </c>
       <c r="E17" t="n">
-        <v>223.0679476180479</v>
+        <v>223.0679476180478</v>
       </c>
       <c r="F17" t="n">
-        <v>248.0136232874976</v>
+        <v>248.0136232874975</v>
       </c>
       <c r="G17" t="n">
-        <v>253.6590243899773</v>
+        <v>253.6590243899772</v>
       </c>
       <c r="H17" t="n">
-        <v>152.1284865777488</v>
+        <v>152.1284865777487</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,22 +1895,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>52.05832719786048</v>
+        <v>52.05832719786036</v>
       </c>
       <c r="U17" t="n">
-        <v>92.26072719994713</v>
+        <v>92.26072719994701</v>
       </c>
       <c r="V17" t="n">
-        <v>168.889836015921</v>
+        <v>168.8898360159209</v>
       </c>
       <c r="W17" t="n">
-        <v>190.3785462631992</v>
+        <v>190.378546263199</v>
       </c>
       <c r="X17" t="n">
-        <v>210.8686782242552</v>
+        <v>30.97035557456517</v>
       </c>
       <c r="Y17" t="n">
-        <v>227.3755162018397</v>
+        <v>227.3755162018396</v>
       </c>
     </row>
     <row r="18">
@@ -1926,22 +1926,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>126.2348763483612</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.8553954612995</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>38.1608637285961</v>
+        <v>7.73685758023375</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.763751642754514</v>
+        <v>7.763751642754528</v>
       </c>
       <c r="S18" t="n">
         <v>144.0419631757947</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20.96955772772344</v>
+        <v>20.96955772772333</v>
       </c>
       <c r="C19" t="n">
-        <v>8.384398644413977</v>
+        <v>8.384398644413864</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>166.7433881128243</v>
       </c>
       <c r="H19" t="n">
-        <v>151.1349521598894</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>75.28867797416451</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>121.1971522780048</v>
       </c>
       <c r="S19" t="n">
-        <v>43.41206269292848</v>
+        <v>43.41206269292837</v>
       </c>
       <c r="T19" t="n">
-        <v>63.75254983362942</v>
+        <v>63.75254983362931</v>
       </c>
       <c r="U19" t="n">
-        <v>127.388556470697</v>
+        <v>127.3885564706969</v>
       </c>
       <c r="V19" t="n">
-        <v>93.27522086961415</v>
+        <v>198.5016987256641</v>
       </c>
       <c r="W19" t="n">
-        <v>127.6605758823771</v>
+        <v>127.660575882377</v>
       </c>
       <c r="X19" t="n">
-        <v>66.8472329348233</v>
+        <v>66.84723293482318</v>
       </c>
       <c r="Y19" t="n">
-        <v>59.72223089788093</v>
+        <v>59.72223089788082</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>223.8714192092667</v>
+        <v>223.8714192092666</v>
       </c>
       <c r="C20" t="n">
-        <v>206.4104693167937</v>
+        <v>206.4104693167936</v>
       </c>
       <c r="D20" t="n">
-        <v>195.8206191664691</v>
+        <v>195.820619166469</v>
       </c>
       <c r="E20" t="n">
-        <v>223.0679476180479</v>
+        <v>223.0679476180478</v>
       </c>
       <c r="F20" t="n">
-        <v>248.0136232874976</v>
+        <v>248.0136232874975</v>
       </c>
       <c r="G20" t="n">
-        <v>253.6590243899773</v>
+        <v>253.6590243899772</v>
       </c>
       <c r="H20" t="n">
-        <v>152.1284865777488</v>
+        <v>152.1284865777487</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>41.04984056409168</v>
+        <v>52.05832719786036</v>
       </c>
       <c r="U20" t="n">
-        <v>92.26072719994713</v>
+        <v>92.26072719994701</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>168.8898360159209</v>
       </c>
       <c r="W20" t="n">
-        <v>190.3785462631992</v>
+        <v>10.48022361351108</v>
       </c>
       <c r="X20" t="n">
-        <v>210.8686782242552</v>
+        <v>210.8686782242551</v>
       </c>
       <c r="Y20" t="n">
-        <v>227.3755162018397</v>
+        <v>227.3755162018396</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7.670761195653483</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2175,10 +2175,10 @@
         <v>135.8553954612995</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>23.6871769374853</v>
       </c>
       <c r="I21" t="n">
-        <v>38.1608637285961</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.763751642754514</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>144.0419631757947</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>194.1665539401884</v>
@@ -2226,7 +2226,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>198.265716621857</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20.96955772772344</v>
+        <v>20.96955772772333</v>
       </c>
       <c r="C22" t="n">
-        <v>8.384398644413977</v>
+        <v>8.384398644413864</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>7.880965658610426</v>
+        <v>7.880965658610313</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>54.11983324855845</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>97.53189594148606</v>
+        <v>43.41206269292837</v>
       </c>
       <c r="T22" t="n">
-        <v>222.6149722878433</v>
+        <v>63.75254983362931</v>
       </c>
       <c r="U22" t="n">
         <v>286.2509789249108</v>
       </c>
       <c r="V22" t="n">
-        <v>93.27522086961415</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>127.6605758823771</v>
+        <v>127.660575882377</v>
       </c>
       <c r="X22" t="n">
-        <v>66.8472329348233</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>59.72223089788082</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>223.8714192092667</v>
+        <v>223.8714192092666</v>
       </c>
       <c r="C23" t="n">
-        <v>206.4104693167937</v>
+        <v>206.4104693167936</v>
       </c>
       <c r="D23" t="n">
-        <v>195.8206191664691</v>
+        <v>195.820619166469</v>
       </c>
       <c r="E23" t="n">
-        <v>223.0679476180479</v>
+        <v>223.0679476180478</v>
       </c>
       <c r="F23" t="n">
-        <v>248.0136232874976</v>
+        <v>248.0136232874975</v>
       </c>
       <c r="G23" t="n">
-        <v>253.6590243899773</v>
+        <v>253.6590243899772</v>
       </c>
       <c r="H23" t="n">
-        <v>152.1284865777488</v>
+        <v>152.1284865777487</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,22 +2369,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>52.05832719786048</v>
+        <v>52.05832719786036</v>
       </c>
       <c r="U23" t="n">
-        <v>92.26072719994713</v>
+        <v>92.26072719994701</v>
       </c>
       <c r="V23" t="n">
-        <v>168.889836015921</v>
+        <v>168.8898360159209</v>
       </c>
       <c r="W23" t="n">
-        <v>190.3785462631992</v>
+        <v>190.378546263199</v>
       </c>
       <c r="X23" t="n">
-        <v>210.8686782242552</v>
+        <v>210.8686782242551</v>
       </c>
       <c r="Y23" t="n">
-        <v>227.3755162018397</v>
+        <v>227.3755162018396</v>
       </c>
     </row>
     <row r="24">
@@ -2409,13 +2409,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>135.8553954612995</v>
+        <v>51.61099501749877</v>
       </c>
       <c r="H24" t="n">
         <v>97.863321483828</v>
       </c>
       <c r="I24" t="n">
-        <v>38.1608637285961</v>
+        <v>38.16086372859611</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>7.763751642754528</v>
       </c>
       <c r="S24" t="n">
-        <v>67.56131437475078</v>
+        <v>144.0419631757947</v>
       </c>
       <c r="T24" t="n">
         <v>194.1665539401884</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20.96955772772344</v>
+        <v>20.96955772772333</v>
       </c>
       <c r="C25" t="n">
-        <v>8.384398644413977</v>
+        <v>8.384398644413864</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>7.880965658610426</v>
+        <v>7.880965658610313</v>
       </c>
       <c r="H25" t="n">
-        <v>151.1349521598894</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>121.1971522780048</v>
       </c>
       <c r="S25" t="n">
-        <v>43.41206269292848</v>
+        <v>135.1971661176958</v>
       </c>
       <c r="T25" t="n">
-        <v>125.5998533765113</v>
+        <v>222.6149722878433</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2509789249108</v>
+        <v>127.3885564706969</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>93.27522086961403</v>
       </c>
       <c r="W25" t="n">
-        <v>127.6605758823771</v>
+        <v>127.660575882377</v>
       </c>
       <c r="X25" t="n">
-        <v>66.8472329348233</v>
+        <v>66.84723293482318</v>
       </c>
       <c r="Y25" t="n">
-        <v>59.72223089788093</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2561,19 +2561,19 @@
         <v>275.251830393576</v>
       </c>
       <c r="E26" t="n">
-        <v>302.4991588451549</v>
+        <v>302.4991588451548</v>
       </c>
       <c r="F26" t="n">
         <v>327.4448345146045</v>
       </c>
       <c r="G26" t="n">
-        <v>333.0902356170842</v>
+        <v>333.0902356170841</v>
       </c>
       <c r="H26" t="n">
-        <v>231.5596978048558</v>
+        <v>231.5596978048557</v>
       </c>
       <c r="I26" t="n">
-        <v>23.81896975173338</v>
+        <v>23.81896975173335</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.21019719500376</v>
+        <v>66.21019719500373</v>
       </c>
       <c r="T26" t="n">
-        <v>131.4895384249674</v>
+        <v>131.4895384249673</v>
       </c>
       <c r="U26" t="n">
-        <v>171.6919384270541</v>
+        <v>171.691938427054</v>
       </c>
       <c r="V26" t="n">
-        <v>248.321047243028</v>
+        <v>248.3210472430279</v>
       </c>
       <c r="W26" t="n">
-        <v>269.8097574903061</v>
+        <v>269.809757490306</v>
       </c>
       <c r="X26" t="n">
-        <v>290.2998894513621</v>
+        <v>290.299889451362</v>
       </c>
       <c r="Y26" t="n">
-        <v>306.8067274289467</v>
+        <v>306.8067274289466</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I27" t="n">
-        <v>38.1608637285961</v>
+        <v>38.16086372859611</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>7.763751642754514</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S27" t="n">
         <v>144.0419631757947</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.4007689548304</v>
+        <v>100.4007689548303</v>
       </c>
       <c r="C28" t="n">
-        <v>87.81560987152091</v>
+        <v>87.81560987152085</v>
       </c>
       <c r="D28" t="n">
-        <v>69.18426179110543</v>
+        <v>69.18426179110537</v>
       </c>
       <c r="E28" t="n">
-        <v>67.00275141946224</v>
+        <v>67.00275141946219</v>
       </c>
       <c r="F28" t="n">
-        <v>65.98983679582432</v>
+        <v>65.98983679582426</v>
       </c>
       <c r="G28" t="n">
-        <v>87.31217688571735</v>
+        <v>87.31217688571729</v>
       </c>
       <c r="H28" t="n">
-        <v>71.70374093278247</v>
+        <v>71.70374093278242</v>
       </c>
       <c r="I28" t="n">
-        <v>38.50079242234363</v>
+        <v>38.50079242234358</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76594105089782</v>
+        <v>41.76594105089779</v>
       </c>
       <c r="S28" t="n">
         <v>122.8432739200354</v>
@@ -2770,16 +2770,16 @@
         <v>206.8197676978039</v>
       </c>
       <c r="V28" t="n">
-        <v>172.7064320967211</v>
+        <v>172.706432096721</v>
       </c>
       <c r="W28" t="n">
-        <v>207.0917871094841</v>
+        <v>207.091787109484</v>
       </c>
       <c r="X28" t="n">
         <v>146.2784441619302</v>
       </c>
       <c r="Y28" t="n">
-        <v>139.1534421249879</v>
+        <v>139.1534421249878</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>303.3026304363736</v>
       </c>
       <c r="C29" t="n">
-        <v>285.8416805439007</v>
+        <v>285.8416805439006</v>
       </c>
       <c r="D29" t="n">
         <v>275.251830393576</v>
@@ -2810,7 +2810,7 @@
         <v>231.5596978048558</v>
       </c>
       <c r="I29" t="n">
-        <v>23.81896975173341</v>
+        <v>23.81896975173338</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.21019719500379</v>
+        <v>66.21019719500377</v>
       </c>
       <c r="T29" t="n">
         <v>131.4895384249674</v>
@@ -2889,7 +2889,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I30" t="n">
-        <v>38.1608637285961</v>
+        <v>38.16086372859608</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>7.763751642754514</v>
+        <v>7.763751642754499</v>
       </c>
       <c r="S30" t="n">
         <v>144.0419631757947</v>
@@ -2950,25 +2950,25 @@
         <v>100.4007689548304</v>
       </c>
       <c r="C31" t="n">
-        <v>87.81560987152093</v>
+        <v>87.81560987152092</v>
       </c>
       <c r="D31" t="n">
-        <v>69.18426179110546</v>
+        <v>69.18426179110544</v>
       </c>
       <c r="E31" t="n">
-        <v>67.00275141946227</v>
+        <v>67.00275141946226</v>
       </c>
       <c r="F31" t="n">
-        <v>65.98983679582435</v>
+        <v>65.98983679582433</v>
       </c>
       <c r="G31" t="n">
-        <v>87.31217688571738</v>
+        <v>87.31217688571736</v>
       </c>
       <c r="H31" t="n">
-        <v>71.70374093278249</v>
+        <v>71.70374093278248</v>
       </c>
       <c r="I31" t="n">
-        <v>38.50079242234366</v>
+        <v>38.50079242234364</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.76594105089785</v>
+        <v>41.76594105089783</v>
       </c>
       <c r="S31" t="n">
         <v>122.8432739200354</v>
       </c>
       <c r="T31" t="n">
-        <v>143.1837610607364</v>
+        <v>143.1837610607363</v>
       </c>
       <c r="U31" t="n">
         <v>206.8197676978039</v>
@@ -3013,7 +3013,7 @@
         <v>207.0917871094841</v>
       </c>
       <c r="X31" t="n">
-        <v>146.2784441619303</v>
+        <v>146.2784441619302</v>
       </c>
       <c r="Y31" t="n">
         <v>139.1534421249879</v>
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>237.0924332413699</v>
+        <v>237.09243324137</v>
       </c>
       <c r="C35" t="n">
         <v>219.6314833488969</v>
       </c>
       <c r="D35" t="n">
-        <v>209.0416331985723</v>
+        <v>209.0416331985724</v>
       </c>
       <c r="E35" t="n">
-        <v>236.2889616501511</v>
+        <v>236.2889616501512</v>
       </c>
       <c r="F35" t="n">
         <v>261.2346373196008</v>
@@ -3281,7 +3281,7 @@
         <v>266.8800384220805</v>
       </c>
       <c r="H35" t="n">
-        <v>165.349500609852</v>
+        <v>165.3495006098521</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,22 +3317,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>65.27934122996365</v>
+        <v>65.27934122996373</v>
       </c>
       <c r="U35" t="n">
-        <v>105.4817412320503</v>
+        <v>105.4817412320504</v>
       </c>
       <c r="V35" t="n">
-        <v>182.1108500480242</v>
+        <v>182.1108500480243</v>
       </c>
       <c r="W35" t="n">
-        <v>203.5995602953023</v>
+        <v>203.5995602953024</v>
       </c>
       <c r="X35" t="n">
-        <v>224.0896922563583</v>
+        <v>224.0896922563584</v>
       </c>
       <c r="Y35" t="n">
-        <v>240.5965302339429</v>
+        <v>240.596530233943</v>
       </c>
     </row>
     <row r="36">
@@ -3421,31 +3421,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.19057175982661</v>
+        <v>34.1905717598267</v>
       </c>
       <c r="C37" t="n">
-        <v>21.60541267651715</v>
+        <v>21.60541267651723</v>
       </c>
       <c r="D37" t="n">
-        <v>2.97406459610167</v>
+        <v>2.974064596101755</v>
       </c>
       <c r="E37" t="n">
-        <v>0.7925542244584847</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>21.10197969071359</v>
+        <v>21.10197969071368</v>
       </c>
       <c r="H37" t="n">
-        <v>5.493543737778715</v>
+        <v>5.493543737778801</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>5.154479050315274</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>202.2744851471423</v>
+        <v>56.63307672503174</v>
       </c>
       <c r="T37" t="n">
-        <v>76.97356386573259</v>
+        <v>169.7730657030238</v>
       </c>
       <c r="U37" t="n">
-        <v>238.5635513904072</v>
+        <v>140.6095705028002</v>
       </c>
       <c r="V37" t="n">
-        <v>106.4962349017173</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>140.8815899144804</v>
       </c>
       <c r="X37" t="n">
-        <v>80.06824696692647</v>
+        <v>80.06824696692655</v>
       </c>
       <c r="Y37" t="n">
-        <v>72.9432449299841</v>
+        <v>72.94324492998419</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>237.0924332413699</v>
+        <v>237.09243324137</v>
       </c>
       <c r="C38" t="n">
         <v>219.6314833488969</v>
       </c>
       <c r="D38" t="n">
-        <v>209.0416331985723</v>
+        <v>209.0416331985724</v>
       </c>
       <c r="E38" t="n">
-        <v>236.2889616501511</v>
+        <v>236.2889616501512</v>
       </c>
       <c r="F38" t="n">
         <v>261.2346373196008</v>
@@ -3518,7 +3518,7 @@
         <v>266.8800384220805</v>
       </c>
       <c r="H38" t="n">
-        <v>165.349500609852</v>
+        <v>165.3495006098521</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>65.27934122996365</v>
+        <v>65.27934122996373</v>
       </c>
       <c r="U38" t="n">
-        <v>105.4817412320503</v>
+        <v>105.4817412320504</v>
       </c>
       <c r="V38" t="n">
-        <v>182.1108500480242</v>
+        <v>182.1108500480243</v>
       </c>
       <c r="W38" t="n">
-        <v>203.5995602953023</v>
+        <v>203.5995602953024</v>
       </c>
       <c r="X38" t="n">
-        <v>224.0896922563583</v>
+        <v>224.0896922563584</v>
       </c>
       <c r="Y38" t="n">
-        <v>240.5965302339429</v>
+        <v>240.596530233943</v>
       </c>
     </row>
     <row r="39">
@@ -3658,31 +3658,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.19057175982661</v>
+        <v>34.1905717598267</v>
       </c>
       <c r="C40" t="n">
-        <v>21.60541267651715</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>2.97406459610167</v>
+        <v>100.9280454837078</v>
       </c>
       <c r="E40" t="n">
-        <v>0.7925542244584847</v>
+        <v>0.7925542244585699</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>21.10197969071359</v>
+        <v>21.10197969071368</v>
       </c>
       <c r="H40" t="n">
-        <v>5.493543737778715</v>
+        <v>5.493543737778801</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.154479050315274</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>56.63307672503165</v>
+        <v>202.2744851471423</v>
       </c>
       <c r="T40" t="n">
-        <v>76.97356386573259</v>
+        <v>76.97356386573267</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2509789249108</v>
+        <v>140.6095705028002</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>106.4962349017174</v>
       </c>
       <c r="W40" t="n">
-        <v>233.6810917517719</v>
+        <v>140.8815899144804</v>
       </c>
       <c r="X40" t="n">
-        <v>80.06824696692647</v>
+        <v>80.06824696692655</v>
       </c>
       <c r="Y40" t="n">
-        <v>72.9432449299841</v>
+        <v>72.94324492998419</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>237.0924332413699</v>
+        <v>237.09243324137</v>
       </c>
       <c r="C41" t="n">
         <v>219.6314833488969</v>
       </c>
       <c r="D41" t="n">
-        <v>209.0416331985723</v>
+        <v>209.0416331985724</v>
       </c>
       <c r="E41" t="n">
-        <v>236.2889616501511</v>
+        <v>236.2889616501512</v>
       </c>
       <c r="F41" t="n">
         <v>261.2346373196008</v>
@@ -3755,7 +3755,7 @@
         <v>266.8800384220805</v>
       </c>
       <c r="H41" t="n">
-        <v>165.349500609852</v>
+        <v>165.3495006098521</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>65.27934122996365</v>
+        <v>65.27934122996373</v>
       </c>
       <c r="U41" t="n">
-        <v>105.4817412320503</v>
+        <v>105.4817412320504</v>
       </c>
       <c r="V41" t="n">
-        <v>182.1108500480242</v>
+        <v>182.1108500480243</v>
       </c>
       <c r="W41" t="n">
-        <v>203.5995602953023</v>
+        <v>203.5995602953024</v>
       </c>
       <c r="X41" t="n">
-        <v>224.0896922563583</v>
+        <v>224.0896922563584</v>
       </c>
       <c r="Y41" t="n">
-        <v>240.5965302339429</v>
+        <v>240.596530233943</v>
       </c>
     </row>
     <row r="42">
@@ -3895,31 +3895,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.19057175982661</v>
+        <v>34.1905717598267</v>
       </c>
       <c r="C43" t="n">
-        <v>21.60541267651715</v>
+        <v>21.60541267651723</v>
       </c>
       <c r="D43" t="n">
-        <v>2.97406459610167</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7925542244584847</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>21.10197969071359</v>
+        <v>21.10197969071368</v>
       </c>
       <c r="H43" t="n">
-        <v>5.493543737778715</v>
+        <v>5.493543737778801</v>
       </c>
       <c r="I43" t="n">
-        <v>117.9320036494506</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>5.154479050315274</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>56.63307672503165</v>
+        <v>149.4325785623227</v>
       </c>
       <c r="T43" t="n">
-        <v>222.6149722878433</v>
+        <v>76.97356386573267</v>
       </c>
       <c r="U43" t="n">
-        <v>266.2729561630672</v>
+        <v>140.6095705028002</v>
       </c>
       <c r="V43" t="n">
-        <v>106.4962349017173</v>
+        <v>106.4962349017174</v>
       </c>
       <c r="W43" t="n">
-        <v>140.8815899144803</v>
+        <v>140.8815899144804</v>
       </c>
       <c r="X43" t="n">
-        <v>80.06824696692647</v>
+        <v>80.06824696692655</v>
       </c>
       <c r="Y43" t="n">
-        <v>72.9432449299841</v>
+        <v>72.94324492998419</v>
       </c>
     </row>
     <row r="44">
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.1445526474336</v>
+        <v>34.19057175982661</v>
       </c>
       <c r="C46" t="n">
-        <v>21.60541267651715</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>2.97406459610167</v>
+        <v>100.9280454837086</v>
       </c>
       <c r="E46" t="n">
-        <v>0.7925542244584847</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>202.2744851471423</v>
+        <v>56.63307672503165</v>
       </c>
       <c r="T46" t="n">
         <v>76.97356386573259</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2509789249108</v>
+        <v>140.6095705028001</v>
       </c>
       <c r="V46" t="n">
         <v>106.4962349017173</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>895.0750633885677</v>
+        <v>1301.505231490957</v>
       </c>
       <c r="C11" t="n">
-        <v>895.0750633885677</v>
+        <v>1301.505231490957</v>
       </c>
       <c r="D11" t="n">
-        <v>617.0429114758647</v>
+        <v>1023.473079578254</v>
       </c>
       <c r="E11" t="n">
-        <v>617.0429114758647</v>
+        <v>717.918373674057</v>
       </c>
       <c r="F11" t="n">
-        <v>617.0429114758647</v>
+        <v>617.0429114758646</v>
       </c>
       <c r="G11" t="n">
         <v>280.5881280242644</v>
       </c>
       <c r="H11" t="n">
-        <v>46.68944337289495</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="I11" t="n">
-        <v>46.68944337289495</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="J11" t="n">
-        <v>268.5576303040251</v>
+        <v>101.151981283672</v>
       </c>
       <c r="K11" t="n">
-        <v>604.5264307378733</v>
+        <v>233.5157259013833</v>
       </c>
       <c r="L11" t="n">
-        <v>805.6371221970193</v>
+        <v>673.8880594953691</v>
       </c>
       <c r="M11" t="n">
-        <v>1061.080953771158</v>
+        <v>1251.669921234944</v>
       </c>
       <c r="N11" t="n">
-        <v>1325.271941977302</v>
+        <v>1829.451782974518</v>
       </c>
       <c r="O11" t="n">
-        <v>1561.404739318495</v>
+        <v>2065.584580315711</v>
       </c>
       <c r="P11" t="n">
-        <v>2047.01833895467</v>
+        <v>2232.617458862118</v>
       </c>
       <c r="Q11" t="n">
-        <v>2334.472168644747</v>
+        <v>2309.87944779889</v>
       </c>
       <c r="R11" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="S11" t="n">
-        <v>2334.472168644747</v>
+        <v>2267.593181579086</v>
       </c>
       <c r="T11" t="n">
-        <v>2228.83489468833</v>
+        <v>2134.775465998311</v>
       </c>
       <c r="U11" t="n">
-        <v>2055.408694256962</v>
+        <v>2134.775465998311</v>
       </c>
       <c r="V11" t="n">
-        <v>1804.579353607439</v>
+        <v>1883.946125348788</v>
       </c>
       <c r="W11" t="n">
-        <v>1804.579353607439</v>
+        <v>1611.411016772721</v>
       </c>
       <c r="X11" t="n">
-        <v>1511.347142040406</v>
+        <v>1611.411016772721</v>
       </c>
       <c r="Y11" t="n">
-        <v>1201.441356758642</v>
+        <v>1301.505231490957</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>831.6948606655816</v>
+        <v>870.2411876641637</v>
       </c>
       <c r="C12" t="n">
-        <v>657.2418313844546</v>
+        <v>776.0217050770841</v>
       </c>
       <c r="D12" t="n">
-        <v>588.5409684172507</v>
+        <v>627.0872954158328</v>
       </c>
       <c r="E12" t="n">
-        <v>429.3035134117953</v>
+        <v>467.8498404103773</v>
       </c>
       <c r="F12" t="n">
-        <v>282.7689554386803</v>
+        <v>321.3152824372622</v>
       </c>
       <c r="G12" t="n">
-        <v>145.5412832555495</v>
+        <v>184.0876102541314</v>
       </c>
       <c r="H12" t="n">
-        <v>46.68944337289495</v>
+        <v>85.23577037147686</v>
       </c>
       <c r="I12" t="n">
-        <v>46.68944337289495</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="J12" t="n">
         <v>185.1392358768292</v>
       </c>
       <c r="K12" t="n">
-        <v>548.3928263393645</v>
+        <v>548.3928263393643</v>
       </c>
       <c r="L12" t="n">
-        <v>731.1045614300155</v>
+        <v>731.1045614300151</v>
       </c>
       <c r="M12" t="n">
-        <v>963.6774064972809</v>
+        <v>963.6774064972805</v>
       </c>
       <c r="N12" t="n">
-        <v>1216.814407647125</v>
+        <v>1403.700853608114</v>
       </c>
       <c r="O12" t="n">
-        <v>1613.051960134167</v>
+        <v>1613.051960134165</v>
       </c>
       <c r="P12" t="n">
-        <v>2077.019754551161</v>
+        <v>2077.01975455116</v>
       </c>
       <c r="Q12" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="R12" t="n">
-        <v>2326.629995268228</v>
+        <v>2326.629995268226</v>
       </c>
       <c r="S12" t="n">
-        <v>2248.930473788312</v>
+        <v>2181.133062767423</v>
       </c>
       <c r="T12" t="n">
-        <v>2133.036188219543</v>
+        <v>1985.005230504607</v>
       </c>
       <c r="U12" t="n">
-        <v>1904.91146161608</v>
+        <v>1782.990695226568</v>
       </c>
       <c r="V12" t="n">
-        <v>1669.759353384338</v>
+        <v>1628.072133688873</v>
       </c>
       <c r="W12" t="n">
-        <v>1415.521996656136</v>
+        <v>1373.834776960671</v>
       </c>
       <c r="X12" t="n">
-        <v>1207.670496450603</v>
+        <v>1246.216823449186</v>
       </c>
       <c r="Y12" t="n">
-        <v>999.9101976856496</v>
+        <v>1038.456524684232</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>539.122948543356</v>
+        <v>539.1229485433564</v>
       </c>
       <c r="C13" t="n">
-        <v>450.4203123094965</v>
+        <v>450.4203123094969</v>
       </c>
       <c r="D13" t="n">
-        <v>380.5372195912082</v>
+        <v>380.5372195912087</v>
       </c>
       <c r="E13" t="n">
-        <v>312.8576727028624</v>
+        <v>312.857672702863</v>
       </c>
       <c r="F13" t="n">
         <v>246.2012718989995</v>
       </c>
       <c r="G13" t="n">
-        <v>158.0071538326183</v>
+        <v>158.0071538326184</v>
       </c>
       <c r="H13" t="n">
-        <v>85.57913268839357</v>
+        <v>85.57913268839349</v>
       </c>
       <c r="I13" t="n">
-        <v>46.68944337289495</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="J13" t="n">
-        <v>120.2234082279183</v>
+        <v>120.2234082279186</v>
       </c>
       <c r="K13" t="n">
-        <v>320.3114555080076</v>
+        <v>320.3114555080079</v>
       </c>
       <c r="L13" t="n">
-        <v>609.8904447105126</v>
+        <v>609.8904447105128</v>
       </c>
       <c r="M13" t="n">
-        <v>921.3253246538482</v>
+        <v>921.3253246538484</v>
       </c>
       <c r="N13" t="n">
         <v>1232.659405364007</v>
@@ -5218,7 +5218,7 @@
         <v>1735.537777472236</v>
       </c>
       <c r="Q13" t="n">
-        <v>1832.298320439746</v>
+        <v>1832.298320439747</v>
       </c>
       <c r="R13" t="n">
         <v>1790.110501196415</v>
@@ -5227,7 +5227,7 @@
         <v>1666.026386125673</v>
       </c>
       <c r="T13" t="n">
-        <v>1521.396324448161</v>
+        <v>1521.396324448162</v>
       </c>
       <c r="U13" t="n">
         <v>1312.487468187754</v>
@@ -5236,13 +5236,13 @@
         <v>1138.036526675914</v>
       </c>
       <c r="W13" t="n">
-        <v>928.852903333001</v>
+        <v>928.8529033330011</v>
       </c>
       <c r="X13" t="n">
-        <v>781.096899129031</v>
+        <v>781.0968991290313</v>
       </c>
       <c r="Y13" t="n">
-        <v>640.5378666795483</v>
+        <v>640.5378666795486</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>971.8548349772161</v>
+        <v>1019.451290824252</v>
       </c>
       <c r="C14" t="n">
-        <v>971.8548349772161</v>
+        <v>1019.451290824252</v>
       </c>
       <c r="D14" t="n">
-        <v>971.8548349772161</v>
+        <v>1019.451290824252</v>
       </c>
       <c r="E14" t="n">
-        <v>971.8548349772161</v>
+        <v>713.8965849200553</v>
       </c>
       <c r="F14" t="n">
-        <v>641.102476881656</v>
+        <v>383.1442268244951</v>
       </c>
       <c r="G14" t="n">
-        <v>304.6476934300557</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="H14" t="n">
-        <v>70.74900877868625</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="I14" t="n">
-        <v>46.68944337289495</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="J14" t="n">
         <v>268.5576303040251</v>
       </c>
       <c r="K14" t="n">
-        <v>604.5264307378733</v>
+        <v>472.7773680362233</v>
       </c>
       <c r="L14" t="n">
-        <v>805.6371221970193</v>
+        <v>673.8880594953691</v>
       </c>
       <c r="M14" t="n">
-        <v>1061.080953771158</v>
+        <v>1251.669921234944</v>
       </c>
       <c r="N14" t="n">
-        <v>1325.271941977302</v>
+        <v>1829.451782974518</v>
       </c>
       <c r="O14" t="n">
-        <v>1561.404739318495</v>
+        <v>2065.584580315711</v>
       </c>
       <c r="P14" t="n">
-        <v>2047.01833895467</v>
+        <v>2232.617458862118</v>
       </c>
       <c r="Q14" t="n">
-        <v>2334.472168644747</v>
+        <v>2309.87944779889</v>
       </c>
       <c r="R14" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="S14" t="n">
-        <v>2267.593181579087</v>
+        <v>2267.593181579085</v>
       </c>
       <c r="T14" t="n">
-        <v>2134.775465998312</v>
+        <v>2134.775465998311</v>
       </c>
       <c r="U14" t="n">
-        <v>1961.349265566944</v>
+        <v>2134.775465998311</v>
       </c>
       <c r="V14" t="n">
-        <v>1710.519924917421</v>
+        <v>1883.946125348788</v>
       </c>
       <c r="W14" t="n">
-        <v>1574.992831826013</v>
+        <v>1611.411016772721</v>
       </c>
       <c r="X14" t="n">
-        <v>1281.76062025898</v>
+        <v>1611.411016772721</v>
       </c>
       <c r="Y14" t="n">
-        <v>971.8548349772161</v>
+        <v>1301.505231490956</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>691.5060763271663</v>
+        <v>790.0076409701161</v>
       </c>
       <c r="C15" t="n">
-        <v>517.0530470460393</v>
+        <v>615.5546116889891</v>
       </c>
       <c r="D15" t="n">
-        <v>368.118637384788</v>
+        <v>466.6202020277379</v>
       </c>
       <c r="E15" t="n">
-        <v>289.1147290733799</v>
+        <v>307.3827470222824</v>
       </c>
       <c r="F15" t="n">
-        <v>222.8137177943123</v>
+        <v>160.8481890491673</v>
       </c>
       <c r="G15" t="n">
-        <v>165.8195923052289</v>
+        <v>103.854063560084</v>
       </c>
       <c r="H15" t="n">
-        <v>85.23577037147686</v>
+        <v>85.23577037147685</v>
       </c>
       <c r="I15" t="n">
-        <v>46.68944337289495</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="J15" t="n">
         <v>185.1392358768292</v>
       </c>
       <c r="K15" t="n">
-        <v>410.6344117106239</v>
+        <v>410.6344117106229</v>
       </c>
       <c r="L15" t="n">
-        <v>593.3461468012748</v>
+        <v>593.3461468012738</v>
       </c>
       <c r="M15" t="n">
-        <v>825.9189918685403</v>
+        <v>825.9189918685393</v>
       </c>
       <c r="N15" t="n">
-        <v>1403.700853608115</v>
+        <v>1403.700853608114</v>
       </c>
       <c r="O15" t="n">
-        <v>1613.051960134167</v>
+        <v>1613.051960134165</v>
       </c>
       <c r="P15" t="n">
-        <v>2077.019754551161</v>
+        <v>2077.01975455116</v>
       </c>
       <c r="Q15" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="R15" t="n">
-        <v>2334.472168644747</v>
+        <v>2326.629995268226</v>
       </c>
       <c r="S15" t="n">
-        <v>2188.975236143945</v>
+        <v>2181.133062767423</v>
       </c>
       <c r="T15" t="n">
-        <v>1992.847403881128</v>
+        <v>2011.11542183003</v>
       </c>
       <c r="U15" t="n">
-        <v>1764.722677277665</v>
+        <v>1782.990695226568</v>
       </c>
       <c r="V15" t="n">
-        <v>1529.570569045923</v>
+        <v>1547.838586994825</v>
       </c>
       <c r="W15" t="n">
-        <v>1275.333212317721</v>
+        <v>1293.601230266623</v>
       </c>
       <c r="X15" t="n">
-        <v>1067.481712112188</v>
+        <v>1085.749730061091</v>
       </c>
       <c r="Y15" t="n">
-        <v>859.7214133472344</v>
+        <v>877.9894312961367</v>
       </c>
     </row>
     <row r="16">
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>539.1229485433558</v>
+        <v>539.122948543356</v>
       </c>
       <c r="C16" t="n">
-        <v>450.4203123094963</v>
+        <v>450.4203123094964</v>
       </c>
       <c r="D16" t="n">
-        <v>380.537219591208</v>
+        <v>380.5372195912081</v>
       </c>
       <c r="E16" t="n">
-        <v>312.8576727028623</v>
+        <v>312.8576727028624</v>
       </c>
       <c r="F16" t="n">
-        <v>246.2012718989993</v>
+        <v>246.2012718989995</v>
       </c>
       <c r="G16" t="n">
-        <v>158.0071538326183</v>
+        <v>158.0071538326184</v>
       </c>
       <c r="H16" t="n">
-        <v>85.57913268839357</v>
+        <v>85.57913268839366</v>
       </c>
       <c r="I16" t="n">
-        <v>46.68944337289495</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="J16" t="n">
-        <v>120.2234082279188</v>
+        <v>120.2234082279185</v>
       </c>
       <c r="K16" t="n">
-        <v>320.3114555080081</v>
+        <v>320.3114555080078</v>
       </c>
       <c r="L16" t="n">
-        <v>609.8904447105131</v>
+        <v>609.8904447105128</v>
       </c>
       <c r="M16" t="n">
-        <v>921.3253246538486</v>
+        <v>921.3253246538484</v>
       </c>
       <c r="N16" t="n">
         <v>1232.659405364007</v>
@@ -5467,13 +5467,13 @@
         <v>1521.396324448162</v>
       </c>
       <c r="U16" t="n">
-        <v>1312.487468187753</v>
+        <v>1312.487468187754</v>
       </c>
       <c r="V16" t="n">
         <v>1138.036526675914</v>
       </c>
       <c r="W16" t="n">
-        <v>928.8529033330008</v>
+        <v>928.852903333001</v>
       </c>
       <c r="X16" t="n">
         <v>781.0968991290308</v>
@@ -5495,52 +5495,52 @@
         <v>1130.214393918087</v>
       </c>
       <c r="D17" t="n">
-        <v>932.4157886994317</v>
+        <v>932.4157886994316</v>
       </c>
       <c r="E17" t="n">
         <v>707.0946294892823</v>
       </c>
       <c r="F17" t="n">
-        <v>456.5758180877695</v>
+        <v>456.5758180877697</v>
       </c>
       <c r="G17" t="n">
-        <v>200.354581330217</v>
+        <v>200.3545813302169</v>
       </c>
       <c r="H17" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="I17" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="J17" t="n">
-        <v>151.2587276747083</v>
+        <v>268.5576303040251</v>
       </c>
       <c r="K17" t="n">
-        <v>604.5264307378728</v>
+        <v>721.8253333671895</v>
       </c>
       <c r="L17" t="n">
-        <v>805.6371221970188</v>
+        <v>922.9360248263354</v>
       </c>
       <c r="M17" t="n">
-        <v>1061.080953771157</v>
+        <v>1178.379856400473</v>
       </c>
       <c r="N17" t="n">
-        <v>1325.271941977302</v>
+        <v>1442.570844606618</v>
       </c>
       <c r="O17" t="n">
-        <v>1561.404739318495</v>
+        <v>2020.352706346193</v>
       </c>
       <c r="P17" t="n">
-        <v>2047.01833895467</v>
+        <v>2187.3855848926</v>
       </c>
       <c r="Q17" t="n">
-        <v>2334.472168644747</v>
+        <v>2309.87944779889</v>
       </c>
       <c r="R17" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="S17" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="T17" t="n">
         <v>2281.887999758019</v>
@@ -5555,10 +5555,10 @@
         <v>1825.797990183204</v>
       </c>
       <c r="X17" t="n">
-        <v>1612.799325310219</v>
+        <v>1794.514802734147</v>
       </c>
       <c r="Y17" t="n">
-        <v>1383.127086722502</v>
+        <v>1564.842564146431</v>
       </c>
     </row>
     <row r="18">
@@ -5568,52 +5568,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>683.6639029506459</v>
+        <v>683.6639029506455</v>
       </c>
       <c r="C18" t="n">
-        <v>509.2108736695189</v>
+        <v>509.2108736695185</v>
       </c>
       <c r="D18" t="n">
-        <v>509.2108736695189</v>
+        <v>360.2764640082672</v>
       </c>
       <c r="E18" t="n">
-        <v>349.9734186640634</v>
+        <v>201.0390090028117</v>
       </c>
       <c r="F18" t="n">
-        <v>222.4634425546076</v>
+        <v>54.5044510296967</v>
       </c>
       <c r="G18" t="n">
-        <v>85.23577037147686</v>
+        <v>54.5044510296967</v>
       </c>
       <c r="H18" t="n">
-        <v>85.23577037147686</v>
+        <v>54.5044510296967</v>
       </c>
       <c r="I18" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="J18" t="n">
         <v>185.1392358768292</v>
       </c>
       <c r="K18" t="n">
-        <v>548.3928263393645</v>
+        <v>548.3928263393643</v>
       </c>
       <c r="L18" t="n">
-        <v>731.1045614300155</v>
+        <v>917.9910073910048</v>
       </c>
       <c r="M18" t="n">
-        <v>963.6774064972809</v>
+        <v>1150.56385245827</v>
       </c>
       <c r="N18" t="n">
-        <v>1216.814407647125</v>
+        <v>1403.700853608114</v>
       </c>
       <c r="O18" t="n">
         <v>1613.051960134166</v>
       </c>
       <c r="P18" t="n">
-        <v>2077.019754551161</v>
+        <v>2077.01975455116</v>
       </c>
       <c r="Q18" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="R18" t="n">
         <v>2326.629995268227</v>
@@ -5622,22 +5622,22 @@
         <v>2181.133062767424</v>
       </c>
       <c r="T18" t="n">
-        <v>1985.005230504608</v>
+        <v>1985.005230504607</v>
       </c>
       <c r="U18" t="n">
-        <v>1756.880503901145</v>
+        <v>1756.880503901144</v>
       </c>
       <c r="V18" t="n">
         <v>1521.728395669402</v>
       </c>
       <c r="W18" t="n">
-        <v>1267.491038941201</v>
+        <v>1267.4910389412</v>
       </c>
       <c r="X18" t="n">
-        <v>1059.639538735668</v>
+        <v>1059.639538735667</v>
       </c>
       <c r="Y18" t="n">
-        <v>851.879239970714</v>
+        <v>851.8792399707136</v>
       </c>
     </row>
     <row r="19">
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>599.1868826801914</v>
+        <v>370.4761451710458</v>
       </c>
       <c r="C19" t="n">
-        <v>590.7177931403793</v>
+        <v>362.0070556312338</v>
       </c>
       <c r="D19" t="n">
-        <v>590.7177931403793</v>
+        <v>362.0070556312338</v>
       </c>
       <c r="E19" t="n">
-        <v>590.7177931403793</v>
+        <v>362.0070556312338</v>
       </c>
       <c r="F19" t="n">
-        <v>443.8278456424689</v>
+        <v>215.1171081333235</v>
       </c>
       <c r="G19" t="n">
-        <v>275.4001808820403</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="H19" t="n">
-        <v>122.7386130437682</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="I19" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="J19" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="K19" t="n">
-        <v>168.1405915381484</v>
+        <v>168.1405915381483</v>
       </c>
       <c r="L19" t="n">
-        <v>379.0826816258175</v>
+        <v>379.0826816258174</v>
       </c>
       <c r="M19" t="n">
-        <v>611.8806624543172</v>
+        <v>611.880662454317</v>
       </c>
       <c r="N19" t="n">
-        <v>844.5778440496399</v>
+        <v>844.5778440496397</v>
       </c>
       <c r="O19" t="n">
         <v>1043.495058868663</v>
@@ -5695,28 +5695,28 @@
         <v>1208.306061780872</v>
       </c>
       <c r="R19" t="n">
-        <v>1208.306061780872</v>
+        <v>1085.884695843493</v>
       </c>
       <c r="S19" t="n">
-        <v>1164.455493404177</v>
+        <v>1042.034127466798</v>
       </c>
       <c r="T19" t="n">
-        <v>1100.058978420712</v>
+        <v>977.6376124833341</v>
       </c>
       <c r="U19" t="n">
-        <v>971.3836688543519</v>
+        <v>848.9623029169736</v>
       </c>
       <c r="V19" t="n">
-        <v>877.1662740365598</v>
+        <v>648.4555365274139</v>
       </c>
       <c r="W19" t="n">
-        <v>748.216197387694</v>
+        <v>519.5054598785482</v>
       </c>
       <c r="X19" t="n">
-        <v>680.6937398777715</v>
+        <v>451.9830023686258</v>
       </c>
       <c r="Y19" t="n">
-        <v>620.3682541223362</v>
+        <v>391.6575166131906</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>1338.709817470404</v>
       </c>
       <c r="C20" t="n">
-        <v>1130.214393918088</v>
+        <v>1130.214393918087</v>
       </c>
       <c r="D20" t="n">
-        <v>932.4157886994319</v>
+        <v>932.4157886994316</v>
       </c>
       <c r="E20" t="n">
-        <v>707.0946294892825</v>
+        <v>707.0946294892823</v>
       </c>
       <c r="F20" t="n">
-        <v>456.5758180877698</v>
+        <v>456.5758180877697</v>
       </c>
       <c r="G20" t="n">
-        <v>200.354581330217</v>
+        <v>200.3545813302169</v>
       </c>
       <c r="H20" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289496</v>
       </c>
       <c r="I20" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289496</v>
       </c>
       <c r="J20" t="n">
         <v>101.1519812836721</v>
       </c>
       <c r="K20" t="n">
-        <v>233.5157259013835</v>
+        <v>554.4196843468364</v>
       </c>
       <c r="L20" t="n">
-        <v>811.2975876409583</v>
+        <v>755.5303758059823</v>
       </c>
       <c r="M20" t="n">
-        <v>1389.079449380533</v>
+        <v>1010.97420738012</v>
       </c>
       <c r="N20" t="n">
-        <v>1854.044503820375</v>
+        <v>1275.165195586265</v>
       </c>
       <c r="O20" t="n">
-        <v>2090.177301161568</v>
+        <v>1536.81201847264</v>
       </c>
       <c r="P20" t="n">
-        <v>2257.210179707975</v>
+        <v>2022.425618108815</v>
       </c>
       <c r="Q20" t="n">
-        <v>2334.472168644747</v>
+        <v>2309.879447798892</v>
       </c>
       <c r="R20" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644748</v>
       </c>
       <c r="S20" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644748</v>
       </c>
       <c r="T20" t="n">
-        <v>2293.007683226473</v>
+        <v>2281.88799975802</v>
       </c>
       <c r="U20" t="n">
-        <v>2199.815029489152</v>
+        <v>2188.6953460207</v>
       </c>
       <c r="V20" t="n">
-        <v>2199.815029489152</v>
+        <v>2018.099552065224</v>
       </c>
       <c r="W20" t="n">
-        <v>2007.513467607133</v>
+        <v>2007.513467607132</v>
       </c>
       <c r="X20" t="n">
-        <v>1794.514802734148</v>
+        <v>1794.514802734147</v>
       </c>
       <c r="Y20" t="n">
         <v>1564.842564146431</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>851.6228944755563</v>
+        <v>837.0030088279698</v>
       </c>
       <c r="C21" t="n">
-        <v>677.1698651944293</v>
+        <v>662.5499795468428</v>
       </c>
       <c r="D21" t="n">
-        <v>528.2354555331781</v>
+        <v>513.6155698855915</v>
       </c>
       <c r="E21" t="n">
-        <v>368.9980005277226</v>
+        <v>354.378114880136</v>
       </c>
       <c r="F21" t="n">
-        <v>222.4634425546076</v>
+        <v>207.843556907021</v>
       </c>
       <c r="G21" t="n">
-        <v>85.23577037147686</v>
+        <v>70.61588472389022</v>
       </c>
       <c r="H21" t="n">
-        <v>85.23577037147686</v>
+        <v>46.68944337289496</v>
       </c>
       <c r="I21" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289496</v>
       </c>
       <c r="J21" t="n">
-        <v>60.30911088982451</v>
+        <v>185.1392358768292</v>
       </c>
       <c r="K21" t="n">
-        <v>423.5627013523598</v>
+        <v>548.3928263393644</v>
       </c>
       <c r="L21" t="n">
-        <v>606.2744364430107</v>
+        <v>1098.23650328044</v>
       </c>
       <c r="M21" t="n">
-        <v>1184.056298182586</v>
+        <v>1330.809348347705</v>
       </c>
       <c r="N21" t="n">
-        <v>1611.677368466605</v>
+        <v>1583.946349497549</v>
       </c>
       <c r="O21" t="n">
-        <v>1821.028474992657</v>
+        <v>1793.297456023601</v>
       </c>
       <c r="P21" t="n">
-        <v>2284.996269409651</v>
+        <v>2257.265250440595</v>
       </c>
       <c r="Q21" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644748</v>
       </c>
       <c r="R21" t="n">
-        <v>2326.629995268227</v>
+        <v>2334.472168644748</v>
       </c>
       <c r="S21" t="n">
-        <v>2181.133062767424</v>
+        <v>2334.472168644748</v>
       </c>
       <c r="T21" t="n">
-        <v>1985.005230504608</v>
+        <v>2138.344336381931</v>
       </c>
       <c r="U21" t="n">
-        <v>1756.880503901145</v>
+        <v>1910.219609778469</v>
       </c>
       <c r="V21" t="n">
-        <v>1521.728395669402</v>
+        <v>1675.067501546726</v>
       </c>
       <c r="W21" t="n">
-        <v>1267.491038941201</v>
+        <v>1420.830144818525</v>
       </c>
       <c r="X21" t="n">
-        <v>1059.639538735668</v>
+        <v>1212.978644612992</v>
       </c>
       <c r="Y21" t="n">
-        <v>859.3711381075295</v>
+        <v>1005.218345848038</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>63.11910428504081</v>
+        <v>117.7856025159077</v>
       </c>
       <c r="C22" t="n">
-        <v>54.65001474522871</v>
+        <v>109.3165129760957</v>
       </c>
       <c r="D22" t="n">
-        <v>54.65001474522871</v>
+        <v>109.3165129760957</v>
       </c>
       <c r="E22" t="n">
-        <v>54.65001474522871</v>
+        <v>109.3165129760957</v>
       </c>
       <c r="F22" t="n">
-        <v>54.65001474522871</v>
+        <v>109.3165129760957</v>
       </c>
       <c r="G22" t="n">
-        <v>46.68944337289494</v>
+        <v>101.3559416037621</v>
       </c>
       <c r="H22" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289496</v>
       </c>
       <c r="I22" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289496</v>
       </c>
       <c r="J22" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289496</v>
       </c>
       <c r="K22" t="n">
         <v>168.1405915381484</v>
@@ -5935,25 +5935,25 @@
         <v>1208.306061780872</v>
       </c>
       <c r="S22" t="n">
-        <v>1109.78899517331</v>
+        <v>1164.455493404177</v>
       </c>
       <c r="T22" t="n">
-        <v>884.9253868017516</v>
+        <v>1100.058978420713</v>
       </c>
       <c r="U22" t="n">
-        <v>595.7829838472962</v>
+        <v>810.9165754662575</v>
       </c>
       <c r="V22" t="n">
-        <v>501.5655890295042</v>
+        <v>556.2320872603707</v>
       </c>
       <c r="W22" t="n">
-        <v>372.6155123806384</v>
+        <v>427.282010611505</v>
       </c>
       <c r="X22" t="n">
-        <v>305.0930548707158</v>
+        <v>199.2924597134877</v>
       </c>
       <c r="Y22" t="n">
-        <v>84.3004757271857</v>
+        <v>138.9669739580525</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1342.418296601505</v>
+        <v>1342.418296601504</v>
       </c>
       <c r="C23" t="n">
         <v>1133.922873049188</v>
       </c>
       <c r="D23" t="n">
-        <v>936.1242678305327</v>
+        <v>936.1242678305323</v>
       </c>
       <c r="E23" t="n">
-        <v>710.8031086203835</v>
+        <v>710.8031086203829</v>
       </c>
       <c r="F23" t="n">
-        <v>460.2842972188705</v>
+        <v>460.2842972188703</v>
       </c>
       <c r="G23" t="n">
-        <v>204.0630604613176</v>
+        <v>204.0630604613175</v>
       </c>
       <c r="H23" t="n">
-        <v>50.39792250399555</v>
+        <v>50.39792250399551</v>
       </c>
       <c r="I23" t="n">
-        <v>50.39792250399555</v>
+        <v>50.39792250399551</v>
       </c>
       <c r="J23" t="n">
-        <v>272.2661094351257</v>
+        <v>272.2661094351256</v>
       </c>
       <c r="K23" t="n">
-        <v>404.6298540528371</v>
+        <v>521.1623231043734</v>
       </c>
       <c r="L23" t="n">
-        <v>1019.225147916929</v>
+        <v>1135.757616968465</v>
       </c>
       <c r="M23" t="n">
-        <v>1274.668979491067</v>
+        <v>1391.201448542603</v>
       </c>
       <c r="N23" t="n">
-        <v>1898.343270478012</v>
+        <v>2014.875739529548</v>
       </c>
       <c r="O23" t="n">
-        <v>2134.476067819205</v>
+        <v>2251.00853687074</v>
       </c>
       <c r="P23" t="n">
-        <v>2301.508946365612</v>
+        <v>2418.041415417148</v>
       </c>
       <c r="Q23" t="n">
-        <v>2519.896125199777</v>
+        <v>2495.303404353919</v>
       </c>
       <c r="R23" t="n">
-        <v>2519.896125199777</v>
+        <v>2519.896125199775</v>
       </c>
       <c r="S23" t="n">
-        <v>2519.896125199777</v>
+        <v>2519.896125199775</v>
       </c>
       <c r="T23" t="n">
-        <v>2467.311956313049</v>
+        <v>2467.311956313048</v>
       </c>
       <c r="U23" t="n">
-        <v>2374.119302575729</v>
+        <v>2374.119302575728</v>
       </c>
       <c r="V23" t="n">
-        <v>2203.523508620253</v>
+        <v>2203.523508620252</v>
       </c>
       <c r="W23" t="n">
-        <v>2011.221946738234</v>
+        <v>2011.221946738233</v>
       </c>
       <c r="X23" t="n">
-        <v>1798.223281865249</v>
+        <v>1798.223281865248</v>
       </c>
       <c r="Y23" t="n">
-        <v>1568.551043277532</v>
+        <v>1568.551043277531</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>954.1832134893117</v>
+        <v>869.0878595056745</v>
       </c>
       <c r="C24" t="n">
-        <v>779.7301842081847</v>
+        <v>694.6348302245475</v>
       </c>
       <c r="D24" t="n">
-        <v>630.7957745469334</v>
+        <v>545.7004205632962</v>
       </c>
       <c r="E24" t="n">
-        <v>471.5583195414779</v>
+        <v>386.4629655578407</v>
       </c>
       <c r="F24" t="n">
-        <v>325.0237615683628</v>
+        <v>239.9284075847257</v>
       </c>
       <c r="G24" t="n">
         <v>187.796089385232</v>
       </c>
       <c r="H24" t="n">
-        <v>88.94424950257746</v>
+        <v>88.94424950257743</v>
       </c>
       <c r="I24" t="n">
-        <v>50.39792250399555</v>
+        <v>50.39792250399551</v>
       </c>
       <c r="J24" t="n">
         <v>188.8477150079298</v>
       </c>
       <c r="K24" t="n">
-        <v>552.1013054704651</v>
+        <v>552.1013054704649</v>
       </c>
       <c r="L24" t="n">
-        <v>734.8130405611161</v>
+        <v>734.8130405611158</v>
       </c>
       <c r="M24" t="n">
-        <v>1280.728660129738</v>
+        <v>1335.987809013299</v>
       </c>
       <c r="N24" t="n">
-        <v>1904.402951116683</v>
+        <v>1589.124810163143</v>
       </c>
       <c r="O24" t="n">
-        <v>2113.754057642735</v>
+        <v>1798.475916689195</v>
       </c>
       <c r="P24" t="n">
-        <v>2262.443711106191</v>
+        <v>2262.443711106189</v>
       </c>
       <c r="Q24" t="n">
-        <v>2519.896125199777</v>
+        <v>2519.896125199775</v>
       </c>
       <c r="R24" t="n">
-        <v>2519.896125199777</v>
+        <v>2512.053951823255</v>
       </c>
       <c r="S24" t="n">
-        <v>2451.652373306089</v>
+        <v>2366.557019322453</v>
       </c>
       <c r="T24" t="n">
-        <v>2255.524541043273</v>
+        <v>2170.429187059636</v>
       </c>
       <c r="U24" t="n">
-        <v>2027.399814439811</v>
+        <v>1942.304460456174</v>
       </c>
       <c r="V24" t="n">
-        <v>1792.247706208068</v>
+        <v>1707.152352224431</v>
       </c>
       <c r="W24" t="n">
-        <v>1538.010349479866</v>
+        <v>1452.914995496229</v>
       </c>
       <c r="X24" t="n">
-        <v>1330.158849274334</v>
+        <v>1245.063495290696</v>
       </c>
       <c r="Y24" t="n">
-        <v>1122.39855050938</v>
+        <v>1037.303196525743</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>219.4891512544135</v>
+        <v>66.82758341614115</v>
       </c>
       <c r="C25" t="n">
-        <v>211.0200617146014</v>
+        <v>58.35849387632916</v>
       </c>
       <c r="D25" t="n">
-        <v>211.0200617146014</v>
+        <v>58.35849387632916</v>
       </c>
       <c r="E25" t="n">
-        <v>211.0200617146014</v>
+        <v>58.35849387632916</v>
       </c>
       <c r="F25" t="n">
-        <v>211.0200617146014</v>
+        <v>58.35849387632916</v>
       </c>
       <c r="G25" t="n">
-        <v>203.0594903422677</v>
+        <v>50.39792250399551</v>
       </c>
       <c r="H25" t="n">
-        <v>50.39792250399555</v>
+        <v>50.39792250399551</v>
       </c>
       <c r="I25" t="n">
-        <v>50.39792250399555</v>
+        <v>50.39792250399551</v>
       </c>
       <c r="J25" t="n">
-        <v>50.39792250399555</v>
+        <v>50.39792250399551</v>
       </c>
       <c r="K25" t="n">
-        <v>171.849070669249</v>
+        <v>171.8490706692489</v>
       </c>
       <c r="L25" t="n">
-        <v>382.7911607569181</v>
+        <v>382.791160756918</v>
       </c>
       <c r="M25" t="n">
-        <v>615.5891415854178</v>
+        <v>615.5891415854176</v>
       </c>
       <c r="N25" t="n">
-        <v>848.2863231807405</v>
+        <v>848.2863231807403</v>
       </c>
       <c r="O25" t="n">
-        <v>1047.203537999764</v>
+        <v>1047.203537999763</v>
       </c>
       <c r="P25" t="n">
-        <v>1193.890897059298</v>
+        <v>1193.890897059297</v>
       </c>
       <c r="Q25" t="n">
         <v>1212.014540911973</v>
       </c>
       <c r="R25" t="n">
-        <v>1212.014540911973</v>
+        <v>1089.593174974594</v>
       </c>
       <c r="S25" t="n">
-        <v>1168.163972535277</v>
+        <v>953.0303809163154</v>
       </c>
       <c r="T25" t="n">
-        <v>1041.295433771124</v>
+        <v>728.1667725447564</v>
       </c>
       <c r="U25" t="n">
-        <v>752.1530308166689</v>
+        <v>599.491462978396</v>
       </c>
       <c r="V25" t="n">
-        <v>497.468542610782</v>
+        <v>505.2740681606041</v>
       </c>
       <c r="W25" t="n">
-        <v>368.5184659619163</v>
+        <v>376.3239915117384</v>
       </c>
       <c r="X25" t="n">
-        <v>300.9960084519937</v>
+        <v>308.801534001816</v>
       </c>
       <c r="Y25" t="n">
-        <v>240.6705226965584</v>
+        <v>88.00895485828593</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1871.021482161256</v>
+        <v>1871.021482161255</v>
       </c>
       <c r="C26" t="n">
-        <v>1582.292511914892</v>
+        <v>1582.292511914891</v>
       </c>
       <c r="D26" t="n">
-        <v>1304.260360002189</v>
+        <v>1304.260360002188</v>
       </c>
       <c r="E26" t="n">
-        <v>998.705654097992</v>
+        <v>998.7056540979916</v>
       </c>
       <c r="F26" t="n">
-        <v>667.9532960024321</v>
+        <v>667.9532960024317</v>
       </c>
       <c r="G26" t="n">
-        <v>331.4985125508319</v>
+        <v>331.4985125508315</v>
       </c>
       <c r="H26" t="n">
-        <v>97.59982789946172</v>
+        <v>97.59982789946166</v>
       </c>
       <c r="I26" t="n">
-        <v>73.54026249367043</v>
+        <v>73.5402624936704</v>
       </c>
       <c r="J26" t="n">
-        <v>295.4084494248006</v>
+        <v>295.4084494248004</v>
       </c>
       <c r="K26" t="n">
-        <v>748.6761524879651</v>
+        <v>748.6761524879648</v>
       </c>
       <c r="L26" t="n">
-        <v>1363.271446352057</v>
+        <v>1301.574779781914</v>
       </c>
       <c r="M26" t="n">
-        <v>2063.733676084099</v>
+        <v>2002.037009513956</v>
       </c>
       <c r="N26" t="n">
-        <v>2327.924664290244</v>
+        <v>2266.227997720101</v>
       </c>
       <c r="O26" t="n">
-        <v>2941.049641081555</v>
+        <v>2879.352974511412</v>
       </c>
       <c r="P26" t="n">
-        <v>3426.66324071773</v>
+        <v>3364.966574147586</v>
       </c>
       <c r="Q26" t="n">
-        <v>3677.013124683521</v>
+        <v>3652.420403837664</v>
       </c>
       <c r="R26" t="n">
-        <v>3677.013124683521</v>
+        <v>3677.01312468352</v>
       </c>
       <c r="S26" t="n">
-        <v>3610.134137617861</v>
+        <v>3610.13413761786</v>
       </c>
       <c r="T26" t="n">
         <v>3477.316422037085</v>
       </c>
       <c r="U26" t="n">
-        <v>3303.890221605718</v>
+        <v>3303.890221605717</v>
       </c>
       <c r="V26" t="n">
-        <v>3053.060880956194</v>
+        <v>3053.060880956193</v>
       </c>
       <c r="W26" t="n">
-        <v>2780.525772380127</v>
+        <v>2780.525772380126</v>
       </c>
       <c r="X26" t="n">
-        <v>2487.293560813095</v>
+        <v>2487.293560813094</v>
       </c>
       <c r="Y26" t="n">
-        <v>2177.387775531331</v>
+        <v>2177.38777553133</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>112.0865894922523</v>
       </c>
       <c r="I27" t="n">
-        <v>73.54026249367043</v>
+        <v>73.5402624936704</v>
       </c>
       <c r="J27" t="n">
-        <v>87.15993001059999</v>
+        <v>211.9900549976047</v>
       </c>
       <c r="K27" t="n">
-        <v>188.5929358306824</v>
+        <v>575.2436454601398</v>
       </c>
       <c r="L27" t="n">
-        <v>409.3866539347937</v>
+        <v>1125.087322401215</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.007512114559</v>
+        <v>1444.225502986611</v>
       </c>
       <c r="N27" t="n">
-        <v>1830.693463864521</v>
+        <v>1697.362504136455</v>
       </c>
       <c r="O27" t="n">
-        <v>2429.968266474535</v>
+        <v>1906.713610662506</v>
       </c>
       <c r="P27" t="n">
-        <v>2578.657919937991</v>
+        <v>2370.681405079501</v>
       </c>
       <c r="Q27" t="n">
         <v>2628.133819173087</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>565.9737676641311</v>
+        <v>565.9737676641312</v>
       </c>
       <c r="C28" t="n">
-        <v>477.2711314302715</v>
+        <v>477.2711314302717</v>
       </c>
       <c r="D28" t="n">
-        <v>407.3880387119832</v>
+        <v>407.3880387119834</v>
       </c>
       <c r="E28" t="n">
-        <v>339.7084918236375</v>
+        <v>339.7084918236378</v>
       </c>
       <c r="F28" t="n">
-        <v>273.0520910197746</v>
+        <v>273.0520910197749</v>
       </c>
       <c r="G28" t="n">
-        <v>184.8579729533934</v>
+        <v>184.8579729533938</v>
       </c>
       <c r="H28" t="n">
-        <v>112.4299518091687</v>
+        <v>112.429951809169</v>
       </c>
       <c r="I28" t="n">
-        <v>73.54026249367043</v>
+        <v>73.5402624936704</v>
       </c>
       <c r="J28" t="n">
-        <v>147.0742273486939</v>
+        <v>147.0742273486941</v>
       </c>
       <c r="K28" t="n">
-        <v>347.1622746287832</v>
+        <v>347.1622746287834</v>
       </c>
       <c r="L28" t="n">
-        <v>636.7412638312882</v>
+        <v>636.7412638312884</v>
       </c>
       <c r="M28" t="n">
-        <v>948.1761437746237</v>
+        <v>948.1761437746238</v>
       </c>
       <c r="N28" t="n">
         <v>1259.510224484782</v>
@@ -6412,7 +6412,7 @@
         <v>1692.877205246448</v>
       </c>
       <c r="T28" t="n">
-        <v>1548.247143568936</v>
+        <v>1548.247143568937</v>
       </c>
       <c r="U28" t="n">
         <v>1339.338287308528</v>
@@ -6421,10 +6421,10 @@
         <v>1164.887345796689</v>
       </c>
       <c r="W28" t="n">
-        <v>955.7037224537756</v>
+        <v>955.7037224537759</v>
       </c>
       <c r="X28" t="n">
-        <v>807.9477182498056</v>
+        <v>807.947718249806</v>
       </c>
       <c r="Y28" t="n">
         <v>667.3886858003234</v>
@@ -6455,37 +6455,37 @@
         <v>331.4985125508312</v>
       </c>
       <c r="H29" t="n">
-        <v>97.59982789946173</v>
+        <v>97.5998278994617</v>
       </c>
       <c r="I29" t="n">
         <v>73.54026249367041</v>
       </c>
       <c r="J29" t="n">
-        <v>295.4084494248006</v>
+        <v>128.0028004044476</v>
       </c>
       <c r="K29" t="n">
-        <v>748.6761524879651</v>
+        <v>581.2705034676121</v>
       </c>
       <c r="L29" t="n">
-        <v>1363.271446352057</v>
+        <v>1195.865797331704</v>
       </c>
       <c r="M29" t="n">
-        <v>2063.733676084099</v>
+        <v>1896.328027063747</v>
       </c>
       <c r="N29" t="n">
-        <v>2501.012559319263</v>
+        <v>2593.492470437755</v>
       </c>
       <c r="O29" t="n">
-        <v>3114.137536110574</v>
+        <v>3206.617447229066</v>
       </c>
       <c r="P29" t="n">
         <v>3599.751135746749</v>
       </c>
       <c r="Q29" t="n">
-        <v>3677.013124683521</v>
+        <v>3677.01312468352</v>
       </c>
       <c r="R29" t="n">
-        <v>3677.013124683521</v>
+        <v>3677.01312468352</v>
       </c>
       <c r="S29" t="n">
         <v>3610.13413761786</v>
@@ -6540,25 +6540,25 @@
         <v>73.54026249367041</v>
       </c>
       <c r="J30" t="n">
-        <v>211.9900549976047</v>
+        <v>87.15993001060001</v>
       </c>
       <c r="K30" t="n">
-        <v>575.24364546014</v>
+        <v>334.0919275938354</v>
       </c>
       <c r="L30" t="n">
-        <v>1125.087322401215</v>
+        <v>883.935604534911</v>
       </c>
       <c r="M30" t="n">
-        <v>1444.225502986611</v>
+        <v>1577.556462714676</v>
       </c>
       <c r="N30" t="n">
-        <v>1697.362504136455</v>
+        <v>1830.693463864521</v>
       </c>
       <c r="O30" t="n">
-        <v>1906.713610662506</v>
+        <v>2429.968266474535</v>
       </c>
       <c r="P30" t="n">
-        <v>2370.681405079501</v>
+        <v>2578.657919937991</v>
       </c>
       <c r="Q30" t="n">
         <v>2628.133819173087</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.9737676641313</v>
+        <v>565.9737676641312</v>
       </c>
       <c r="C31" t="n">
-        <v>477.2711314302718</v>
+        <v>477.2711314302716</v>
       </c>
       <c r="D31" t="n">
-        <v>407.3880387119834</v>
+        <v>407.3880387119833</v>
       </c>
       <c r="E31" t="n">
-        <v>339.7084918236377</v>
+        <v>339.7084918236376</v>
       </c>
       <c r="F31" t="n">
         <v>273.0520910197747</v>
@@ -6619,28 +6619,28 @@
         <v>73.54026249367041</v>
       </c>
       <c r="J31" t="n">
-        <v>147.0742273486939</v>
+        <v>147.0742273486944</v>
       </c>
       <c r="K31" t="n">
-        <v>347.1622746287831</v>
+        <v>347.1622746287837</v>
       </c>
       <c r="L31" t="n">
-        <v>636.7412638312881</v>
+        <v>636.7412638312887</v>
       </c>
       <c r="M31" t="n">
-        <v>948.1761437746236</v>
+        <v>948.1761437746243</v>
       </c>
       <c r="N31" t="n">
-        <v>1259.510224484782</v>
+        <v>1259.510224484783</v>
       </c>
       <c r="O31" t="n">
-        <v>1537.064338418641</v>
+        <v>1537.064338418642</v>
       </c>
       <c r="P31" t="n">
-        <v>1762.388596593011</v>
+        <v>1762.388596593012</v>
       </c>
       <c r="Q31" t="n">
-        <v>1859.149139560522</v>
+        <v>1859.149139560523</v>
       </c>
       <c r="R31" t="n">
         <v>1816.961320317191</v>
@@ -6649,7 +6649,7 @@
         <v>1692.877205246448</v>
       </c>
       <c r="T31" t="n">
-        <v>1548.247143568936</v>
+        <v>1548.247143568937</v>
       </c>
       <c r="U31" t="n">
         <v>1339.338287308529</v>
@@ -6658,13 +6658,13 @@
         <v>1164.887345796689</v>
       </c>
       <c r="W31" t="n">
-        <v>955.7037224537758</v>
+        <v>955.7037224537761</v>
       </c>
       <c r="X31" t="n">
-        <v>807.9477182498058</v>
+        <v>807.947718249806</v>
       </c>
       <c r="Y31" t="n">
-        <v>667.3886858003236</v>
+        <v>667.3886858003235</v>
       </c>
     </row>
     <row r="32">
@@ -6677,19 +6677,19 @@
         <v>1871.021482161256</v>
       </c>
       <c r="C32" t="n">
-        <v>1582.292511914892</v>
+        <v>1582.292511914891</v>
       </c>
       <c r="D32" t="n">
-        <v>1304.260360002189</v>
+        <v>1304.260360002188</v>
       </c>
       <c r="E32" t="n">
-        <v>998.7056540979918</v>
+        <v>998.7056540979913</v>
       </c>
       <c r="F32" t="n">
-        <v>667.9532960024317</v>
+        <v>667.9532960024312</v>
       </c>
       <c r="G32" t="n">
-        <v>331.4985125508315</v>
+        <v>331.498512550831</v>
       </c>
       <c r="H32" t="n">
         <v>97.5998278994617</v>
@@ -6701,25 +6701,25 @@
         <v>295.4084494248006</v>
       </c>
       <c r="K32" t="n">
-        <v>427.772194042512</v>
+        <v>667.4906331549038</v>
       </c>
       <c r="L32" t="n">
-        <v>893.1940454599059</v>
+        <v>868.6013246140498</v>
       </c>
       <c r="M32" t="n">
-        <v>1593.656275191948</v>
+        <v>1569.063554346092</v>
       </c>
       <c r="N32" t="n">
-        <v>2290.820718565957</v>
+        <v>2266.227997720101</v>
       </c>
       <c r="O32" t="n">
-        <v>2903.945695357268</v>
+        <v>2879.352974511412</v>
       </c>
       <c r="P32" t="n">
-        <v>3389.559294993443</v>
+        <v>3364.966574147587</v>
       </c>
       <c r="Q32" t="n">
-        <v>3677.01312468352</v>
+        <v>3652.420403837664</v>
       </c>
       <c r="R32" t="n">
         <v>3677.01312468352</v>
@@ -6728,22 +6728,22 @@
         <v>3610.13413761786</v>
       </c>
       <c r="T32" t="n">
-        <v>3477.316422037085</v>
+        <v>3477.316422037084</v>
       </c>
       <c r="U32" t="n">
-        <v>3303.890221605718</v>
+        <v>3303.890221605717</v>
       </c>
       <c r="V32" t="n">
-        <v>3053.060880956195</v>
+        <v>3053.060880956194</v>
       </c>
       <c r="W32" t="n">
-        <v>2780.525772380128</v>
+        <v>2780.525772380127</v>
       </c>
       <c r="X32" t="n">
-        <v>2487.293560813095</v>
+        <v>2487.293560813094</v>
       </c>
       <c r="Y32" t="n">
-        <v>2177.387775531331</v>
+        <v>2177.38777553133</v>
       </c>
     </row>
     <row r="33">
@@ -6786,10 +6786,10 @@
         <v>1125.087322401215</v>
       </c>
       <c r="M33" t="n">
-        <v>1444.225502986611</v>
+        <v>1357.660167468481</v>
       </c>
       <c r="N33" t="n">
-        <v>1697.362504136455</v>
+        <v>1610.797168618325</v>
       </c>
       <c r="O33" t="n">
         <v>1906.713610662506</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>565.9737676641315</v>
+        <v>565.9737676641312</v>
       </c>
       <c r="C34" t="n">
-        <v>477.271131430272</v>
+        <v>477.2711314302716</v>
       </c>
       <c r="D34" t="n">
-        <v>407.3880387119837</v>
+        <v>407.3880387119833</v>
       </c>
       <c r="E34" t="n">
-        <v>339.7084918236379</v>
+        <v>339.7084918236376</v>
       </c>
       <c r="F34" t="n">
-        <v>273.052091019775</v>
+        <v>273.0520910197747</v>
       </c>
       <c r="G34" t="n">
-        <v>184.8579729533938</v>
+        <v>184.8579729533935</v>
       </c>
       <c r="H34" t="n">
-        <v>112.4299518091691</v>
+        <v>112.429951809169</v>
       </c>
       <c r="I34" t="n">
         <v>73.54026249367041</v>
@@ -6859,31 +6859,31 @@
         <v>147.0742273486941</v>
       </c>
       <c r="K34" t="n">
-        <v>347.1622746287834</v>
+        <v>347.1622746287836</v>
       </c>
       <c r="L34" t="n">
-        <v>636.7412638312884</v>
+        <v>636.7412638312886</v>
       </c>
       <c r="M34" t="n">
-        <v>948.1761437746242</v>
+        <v>948.1761437746241</v>
       </c>
       <c r="N34" t="n">
         <v>1259.510224484783</v>
       </c>
       <c r="O34" t="n">
-        <v>1537.064338418641</v>
+        <v>1537.064338418642</v>
       </c>
       <c r="P34" t="n">
         <v>1762.388596593012</v>
       </c>
       <c r="Q34" t="n">
-        <v>1859.149139560522</v>
+        <v>1859.149139560523</v>
       </c>
       <c r="R34" t="n">
         <v>1816.961320317191</v>
       </c>
       <c r="S34" t="n">
-        <v>1692.877205246448</v>
+        <v>1692.877205246449</v>
       </c>
       <c r="T34" t="n">
         <v>1548.247143568937</v>
@@ -6892,16 +6892,16 @@
         <v>1339.338287308529</v>
       </c>
       <c r="V34" t="n">
-        <v>1164.88734579669</v>
+        <v>1164.887345796689</v>
       </c>
       <c r="W34" t="n">
-        <v>955.7037224537764</v>
+        <v>955.7037224537761</v>
       </c>
       <c r="X34" t="n">
-        <v>807.9477182498065</v>
+        <v>807.9477182498063</v>
       </c>
       <c r="Y34" t="n">
-        <v>667.3886858003239</v>
+        <v>667.3886858003235</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1426.088700803848</v>
+        <v>1426.08870080385</v>
       </c>
       <c r="C35" t="n">
-        <v>1204.238717623144</v>
+        <v>1204.238717623146</v>
       </c>
       <c r="D35" t="n">
-        <v>993.0855527761015</v>
+        <v>993.0855527761031</v>
       </c>
       <c r="E35" t="n">
-        <v>754.4098339375651</v>
+        <v>754.4098339375665</v>
       </c>
       <c r="F35" t="n">
-        <v>490.5364629076653</v>
+        <v>490.5364629076666</v>
       </c>
       <c r="G35" t="n">
-        <v>220.9606665217257</v>
+        <v>220.9606665217258</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94096893601659</v>
+        <v>53.94096893601664</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94096893601659</v>
+        <v>53.94096893601664</v>
       </c>
       <c r="J35" t="n">
-        <v>275.8091558671467</v>
+        <v>275.8091558671468</v>
       </c>
       <c r="K35" t="n">
-        <v>408.1729004848581</v>
+        <v>729.0768589303113</v>
       </c>
       <c r="L35" t="n">
-        <v>1022.76819434895</v>
+        <v>930.1875503894573</v>
       </c>
       <c r="M35" t="n">
-        <v>1338.909450639946</v>
+        <v>1185.631381963596</v>
       </c>
       <c r="N35" t="n">
-        <v>2006.428941223152</v>
+        <v>1663.25549928753</v>
       </c>
       <c r="O35" t="n">
-        <v>2242.561738564345</v>
+        <v>1899.388296628723</v>
       </c>
       <c r="P35" t="n">
-        <v>2409.594617110752</v>
+        <v>2385.001896264898</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.048446800829</v>
+        <v>2672.455725954976</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.048446800829</v>
+        <v>2697.048446800832</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.048446800829</v>
+        <v>2697.048446800832</v>
       </c>
       <c r="T35" t="n">
-        <v>2631.109718285715</v>
+        <v>2631.109718285717</v>
       </c>
       <c r="U35" t="n">
-        <v>2524.562504920007</v>
+        <v>2524.56250492001</v>
       </c>
       <c r="V35" t="n">
-        <v>2340.612151336144</v>
+        <v>2340.612151336147</v>
       </c>
       <c r="W35" t="n">
-        <v>2134.956029825738</v>
+        <v>2134.95602982574</v>
       </c>
       <c r="X35" t="n">
-        <v>1908.602805324366</v>
+        <v>1908.602805324368</v>
       </c>
       <c r="Y35" t="n">
-        <v>1665.576007108262</v>
+        <v>1665.576007108264</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7002,37 @@
         <v>475.1013659734989</v>
       </c>
       <c r="F36" t="n">
-        <v>328.5668080003838</v>
+        <v>328.5668080003839</v>
       </c>
       <c r="G36" t="n">
         <v>191.3391358172531</v>
       </c>
       <c r="H36" t="n">
-        <v>92.48729593459851</v>
+        <v>92.48729593459856</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94096893601659</v>
+        <v>53.94096893601664</v>
       </c>
       <c r="J36" t="n">
-        <v>192.3907614399509</v>
+        <v>67.5606364529462</v>
       </c>
       <c r="K36" t="n">
-        <v>293.8237672600333</v>
+        <v>168.9936422730286</v>
       </c>
       <c r="L36" t="n">
-        <v>843.6674442011088</v>
+        <v>351.7053773636795</v>
       </c>
       <c r="M36" t="n">
-        <v>1511.186934784314</v>
+        <v>1019.224867946885</v>
       </c>
       <c r="N36" t="n">
-        <v>2178.706425367519</v>
+        <v>1686.744358530091</v>
       </c>
       <c r="O36" t="n">
-        <v>2388.057531893571</v>
+        <v>2286.019161140105</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.747185357027</v>
+        <v>2559.058626380338</v>
       </c>
       <c r="Q36" t="n">
         <v>2608.534525615434</v>
@@ -7069,46 +7069,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>106.4334486588142</v>
+        <v>258.7525269137903</v>
       </c>
       <c r="C37" t="n">
-        <v>84.60979949061505</v>
+        <v>236.9288777455911</v>
       </c>
       <c r="D37" t="n">
-        <v>81.60569383798709</v>
+        <v>233.9247720929631</v>
       </c>
       <c r="E37" t="n">
-        <v>80.80513401530175</v>
+        <v>86.01167851056994</v>
       </c>
       <c r="F37" t="n">
-        <v>80.80513401530175</v>
+        <v>86.01167851056994</v>
       </c>
       <c r="G37" t="n">
-        <v>59.49000301458095</v>
+        <v>64.69654750984904</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94096893601659</v>
+        <v>59.14751343128459</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94096893601659</v>
+        <v>59.14751343128459</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94096893601659</v>
+        <v>53.94096893601664</v>
       </c>
       <c r="K37" t="n">
-        <v>175.39211710127</v>
+        <v>175.3921171012701</v>
       </c>
       <c r="L37" t="n">
-        <v>386.3342071889391</v>
+        <v>386.3342071889392</v>
       </c>
       <c r="M37" t="n">
-        <v>619.1321880174388</v>
+        <v>619.1321880174389</v>
       </c>
       <c r="N37" t="n">
-        <v>851.8293696127615</v>
+        <v>851.8293696127616</v>
       </c>
       <c r="O37" t="n">
-        <v>1050.746584431784</v>
+        <v>1050.746584431785</v>
       </c>
       <c r="P37" t="n">
         <v>1197.433943491319</v>
@@ -7120,25 +7120,25 @@
         <v>1215.557587343994</v>
       </c>
       <c r="S37" t="n">
-        <v>1011.239925579203</v>
+        <v>1158.352459338911</v>
       </c>
       <c r="T37" t="n">
-        <v>933.4888509673523</v>
+        <v>986.8645141843418</v>
       </c>
       <c r="U37" t="n">
-        <v>692.5155667346177</v>
+        <v>844.8346449895942</v>
       </c>
       <c r="V37" t="n">
-        <v>584.9436122884385</v>
+        <v>590.1501567837073</v>
       </c>
       <c r="W37" t="n">
-        <v>295.526442251478</v>
+        <v>447.8455205064544</v>
       </c>
       <c r="X37" t="n">
-        <v>214.6494251131684</v>
+        <v>366.9685033681447</v>
       </c>
       <c r="Y37" t="n">
-        <v>140.9693797293461</v>
+        <v>293.2884579843223</v>
       </c>
     </row>
     <row r="38">
@@ -7154,61 +7154,61 @@
         <v>1204.238717623145</v>
       </c>
       <c r="D38" t="n">
-        <v>993.0855527761028</v>
+        <v>993.0855527761025</v>
       </c>
       <c r="E38" t="n">
-        <v>754.4098339375662</v>
+        <v>754.409833937566</v>
       </c>
       <c r="F38" t="n">
-        <v>490.5364629076664</v>
+        <v>490.536462907666</v>
       </c>
       <c r="G38" t="n">
-        <v>220.9606665217257</v>
+        <v>220.9606665217258</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601662</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601662</v>
       </c>
       <c r="J38" t="n">
-        <v>108.4035068467937</v>
+        <v>275.8091558671468</v>
       </c>
       <c r="K38" t="n">
-        <v>240.7672514645052</v>
+        <v>408.1729004848582</v>
       </c>
       <c r="L38" t="n">
-        <v>441.8779429236511</v>
+        <v>1022.76819434895</v>
       </c>
       <c r="M38" t="n">
-        <v>1109.397433506857</v>
+        <v>1690.287684932156</v>
       </c>
       <c r="N38" t="n">
-        <v>1373.588421713001</v>
+        <v>2216.62078197646</v>
       </c>
       <c r="O38" t="n">
-        <v>1986.713398504312</v>
+        <v>2452.753579317653</v>
       </c>
       <c r="P38" t="n">
-        <v>2472.326998140487</v>
+        <v>2619.78645786406</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.04844680083</v>
+        <v>2697.048446800831</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.04844680083</v>
+        <v>2697.048446800831</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.04844680083</v>
+        <v>2697.048446800831</v>
       </c>
       <c r="T38" t="n">
-        <v>2631.109718285716</v>
+        <v>2631.109718285717</v>
       </c>
       <c r="U38" t="n">
-        <v>2524.562504920008</v>
+        <v>2524.562504920009</v>
       </c>
       <c r="V38" t="n">
-        <v>2340.612151336145</v>
+        <v>2340.612151336146</v>
       </c>
       <c r="W38" t="n">
         <v>2134.956029825739</v>
@@ -7248,22 +7248,22 @@
         <v>92.48729593459854</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601662</v>
       </c>
       <c r="J39" t="n">
-        <v>67.56063645294617</v>
+        <v>72.55012238321012</v>
       </c>
       <c r="K39" t="n">
-        <v>168.9936422730286</v>
+        <v>435.8037128457454</v>
       </c>
       <c r="L39" t="n">
-        <v>595.7236937028587</v>
+        <v>985.6473897868209</v>
       </c>
       <c r="M39" t="n">
-        <v>828.2965387701241</v>
+        <v>1218.220234854086</v>
       </c>
       <c r="N39" t="n">
-        <v>1495.81602935333</v>
+        <v>1885.739725437292</v>
       </c>
       <c r="O39" t="n">
         <v>2095.090831963344</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.6399931540822</v>
+        <v>352.4893974565082</v>
       </c>
       <c r="C40" t="n">
-        <v>89.81634398588304</v>
+        <v>183.5532145286013</v>
       </c>
       <c r="D40" t="n">
-        <v>86.81223833325508</v>
+        <v>81.60569383798739</v>
       </c>
       <c r="E40" t="n">
-        <v>86.01167851056974</v>
+        <v>80.80513401530196</v>
       </c>
       <c r="F40" t="n">
-        <v>86.01167851056974</v>
+        <v>80.80513401530196</v>
       </c>
       <c r="G40" t="n">
-        <v>64.69654750984893</v>
+        <v>59.49000301458107</v>
       </c>
       <c r="H40" t="n">
-        <v>59.14751343128457</v>
+        <v>53.94096893601662</v>
       </c>
       <c r="I40" t="n">
-        <v>59.14751343128457</v>
+        <v>53.94096893601662</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601662</v>
       </c>
       <c r="K40" t="n">
         <v>175.3921171012701</v>
@@ -7357,25 +7357,25 @@
         <v>1215.557587343994</v>
       </c>
       <c r="S40" t="n">
-        <v>1158.352459338911</v>
+        <v>1011.239925579203</v>
       </c>
       <c r="T40" t="n">
-        <v>1080.60138472706</v>
+        <v>933.4888509673522</v>
       </c>
       <c r="U40" t="n">
         <v>791.4589817726045</v>
       </c>
       <c r="V40" t="n">
-        <v>536.7744935667176</v>
+        <v>683.8870273264253</v>
       </c>
       <c r="W40" t="n">
-        <v>300.732986746746</v>
+        <v>541.5823910491723</v>
       </c>
       <c r="X40" t="n">
-        <v>219.8559696084365</v>
+        <v>460.7053739108626</v>
       </c>
       <c r="Y40" t="n">
-        <v>146.1759242246141</v>
+        <v>387.0253285270402</v>
       </c>
     </row>
     <row r="41">
@@ -7391,61 +7391,61 @@
         <v>1204.238717623145</v>
       </c>
       <c r="D41" t="n">
-        <v>993.0855527761028</v>
+        <v>993.0855527761025</v>
       </c>
       <c r="E41" t="n">
-        <v>754.4098339375662</v>
+        <v>754.409833937566</v>
       </c>
       <c r="F41" t="n">
-        <v>490.5364629076664</v>
+        <v>490.536462907666</v>
       </c>
       <c r="G41" t="n">
-        <v>220.9606665217257</v>
+        <v>220.9606665217258</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601662</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601662</v>
       </c>
       <c r="J41" t="n">
-        <v>134.6227623282443</v>
+        <v>275.8091558671468</v>
       </c>
       <c r="K41" t="n">
-        <v>266.9865069459557</v>
+        <v>408.1729004848582</v>
       </c>
       <c r="L41" t="n">
-        <v>881.5818008100476</v>
+        <v>1022.76819434895</v>
       </c>
       <c r="M41" t="n">
-        <v>1549.101291393253</v>
+        <v>1549.101291393254</v>
       </c>
       <c r="N41" t="n">
-        <v>2216.620781976459</v>
+        <v>2216.62078197646</v>
       </c>
       <c r="O41" t="n">
-        <v>2452.753579317652</v>
+        <v>2452.753579317653</v>
       </c>
       <c r="P41" t="n">
-        <v>2619.786457864059</v>
+        <v>2619.78645786406</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.04844680083</v>
+        <v>2697.048446800831</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.04844680083</v>
+        <v>2697.048446800831</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.04844680083</v>
+        <v>2697.048446800831</v>
       </c>
       <c r="T41" t="n">
-        <v>2631.109718285716</v>
+        <v>2631.109718285717</v>
       </c>
       <c r="U41" t="n">
-        <v>2524.562504920008</v>
+        <v>2524.562504920009</v>
       </c>
       <c r="V41" t="n">
-        <v>2340.612151336145</v>
+        <v>2340.612151336146</v>
       </c>
       <c r="W41" t="n">
         <v>2134.956029825739</v>
@@ -7485,28 +7485,28 @@
         <v>92.48729593459854</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601662</v>
       </c>
       <c r="J42" t="n">
-        <v>192.3907614399509</v>
+        <v>67.56063645294618</v>
       </c>
       <c r="K42" t="n">
-        <v>293.8237672600334</v>
+        <v>430.8142269154815</v>
       </c>
       <c r="L42" t="n">
-        <v>802.1296682777295</v>
+        <v>980.6579038565569</v>
       </c>
       <c r="M42" t="n">
-        <v>1034.702513344995</v>
+        <v>1242.679028203485</v>
       </c>
       <c r="N42" t="n">
-        <v>1287.839514494839</v>
+        <v>1495.81602935333</v>
       </c>
       <c r="O42" t="n">
-        <v>1887.114317104853</v>
+        <v>2095.090831963344</v>
       </c>
       <c r="P42" t="n">
-        <v>2351.082111521847</v>
+        <v>2559.058626380338</v>
       </c>
       <c r="Q42" t="n">
         <v>2608.534525615434</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>225.5566846683602</v>
+        <v>405.865060673498</v>
       </c>
       <c r="C43" t="n">
-        <v>203.7330355001611</v>
+        <v>384.0414115052988</v>
       </c>
       <c r="D43" t="n">
-        <v>200.7289298475331</v>
+        <v>233.924772092963</v>
       </c>
       <c r="E43" t="n">
-        <v>199.9283700248478</v>
+        <v>86.01167851056991</v>
       </c>
       <c r="F43" t="n">
-        <v>199.9283700248478</v>
+        <v>86.01167851056991</v>
       </c>
       <c r="G43" t="n">
-        <v>178.613239024127</v>
+        <v>64.69654750984903</v>
       </c>
       <c r="H43" t="n">
-        <v>173.0642049455626</v>
+        <v>59.14751343128458</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94096893601661</v>
+        <v>59.14751343128458</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601662</v>
       </c>
       <c r="K43" t="n">
         <v>175.3921171012701</v>
@@ -7594,25 +7594,25 @@
         <v>1215.557587343994</v>
       </c>
       <c r="S43" t="n">
-        <v>1158.352459338911</v>
+        <v>1064.615588796193</v>
       </c>
       <c r="T43" t="n">
-        <v>933.4888509673522</v>
+        <v>986.8645141843418</v>
       </c>
       <c r="U43" t="n">
-        <v>664.526268984456</v>
+        <v>844.8346449895942</v>
       </c>
       <c r="V43" t="n">
-        <v>556.9543145382769</v>
+        <v>737.2626905434149</v>
       </c>
       <c r="W43" t="n">
-        <v>414.6496782610241</v>
+        <v>594.958054266162</v>
       </c>
       <c r="X43" t="n">
-        <v>333.7726611227145</v>
+        <v>514.0810371278524</v>
       </c>
       <c r="Y43" t="n">
-        <v>260.0926157388922</v>
+        <v>440.40099174403</v>
       </c>
     </row>
     <row r="44">
@@ -7625,73 +7625,73 @@
         <v>1426.088700803848</v>
       </c>
       <c r="C44" t="n">
-        <v>1204.238717623145</v>
+        <v>1204.238717623144</v>
       </c>
       <c r="D44" t="n">
-        <v>993.0855527761023</v>
+        <v>993.0855527761014</v>
       </c>
       <c r="E44" t="n">
-        <v>754.409833937566</v>
+        <v>754.4098339375648</v>
       </c>
       <c r="F44" t="n">
-        <v>490.5364629076662</v>
+        <v>490.5364629076651</v>
       </c>
       <c r="G44" t="n">
         <v>220.9606665217257</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="J44" t="n">
-        <v>108.4035068467937</v>
+        <v>275.8091558671467</v>
       </c>
       <c r="K44" t="n">
-        <v>240.7672514645052</v>
+        <v>408.1729004848581</v>
       </c>
       <c r="L44" t="n">
-        <v>441.8779429236511</v>
+        <v>1022.76819434895</v>
       </c>
       <c r="M44" t="n">
-        <v>1046.665052477123</v>
+        <v>1278.212025923088</v>
       </c>
       <c r="N44" t="n">
-        <v>1310.856040683267</v>
+        <v>1945.731516506294</v>
       </c>
       <c r="O44" t="n">
-        <v>1923.981017474578</v>
+        <v>2452.753579317651</v>
       </c>
       <c r="P44" t="n">
-        <v>2409.594617110753</v>
+        <v>2619.786457864058</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.04844680083</v>
+        <v>2697.048446800829</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.04844680083</v>
+        <v>2697.048446800829</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.04844680083</v>
+        <v>2697.048446800829</v>
       </c>
       <c r="T44" t="n">
-        <v>2631.109718285716</v>
+        <v>2631.109718285715</v>
       </c>
       <c r="U44" t="n">
-        <v>2524.562504920008</v>
+        <v>2524.562504920007</v>
       </c>
       <c r="V44" t="n">
-        <v>2340.612151336145</v>
+        <v>2340.612151336144</v>
       </c>
       <c r="W44" t="n">
-        <v>2134.956029825738</v>
+        <v>2134.956029825737</v>
       </c>
       <c r="X44" t="n">
-        <v>1908.602805324366</v>
+        <v>1908.602805324365</v>
       </c>
       <c r="Y44" t="n">
-        <v>1665.576007108263</v>
+        <v>1665.576007108262</v>
       </c>
     </row>
     <row r="45">
@@ -7719,31 +7719,31 @@
         <v>191.3391358172531</v>
       </c>
       <c r="H45" t="n">
-        <v>92.48729593459854</v>
+        <v>92.48729593459851</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="J45" t="n">
-        <v>192.3907614399509</v>
+        <v>67.56063645294616</v>
       </c>
       <c r="K45" t="n">
-        <v>555.6443519024862</v>
+        <v>168.9936422730286</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.38485979929</v>
+        <v>476.0551891404572</v>
       </c>
       <c r="M45" t="n">
-        <v>1739.904350382495</v>
+        <v>1143.574679723662</v>
       </c>
       <c r="N45" t="n">
-        <v>1993.04135153234</v>
+        <v>1811.094170306868</v>
       </c>
       <c r="O45" t="n">
-        <v>2202.392458058391</v>
+        <v>2410.368972916882</v>
       </c>
       <c r="P45" t="n">
-        <v>2351.082111521847</v>
+        <v>2559.058626380338</v>
       </c>
       <c r="Q45" t="n">
         <v>2608.534525615434</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>106.4334486588142</v>
+        <v>499.6019312162165</v>
       </c>
       <c r="C46" t="n">
-        <v>84.60979949061507</v>
+        <v>330.6657482883096</v>
       </c>
       <c r="D46" t="n">
-        <v>81.60569383798712</v>
+        <v>228.7182275976949</v>
       </c>
       <c r="E46" t="n">
-        <v>80.80513401530177</v>
+        <v>80.80513401530175</v>
       </c>
       <c r="F46" t="n">
-        <v>80.80513401530177</v>
+        <v>80.80513401530175</v>
       </c>
       <c r="G46" t="n">
-        <v>59.49000301458097</v>
+        <v>59.49000301458095</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="K46" t="n">
-        <v>175.3921171012701</v>
+        <v>175.39211710127</v>
       </c>
       <c r="L46" t="n">
-        <v>386.3342071889392</v>
+        <v>386.3342071889391</v>
       </c>
       <c r="M46" t="n">
         <v>619.1321880174388</v>
@@ -7831,25 +7831,25 @@
         <v>1215.557587343994</v>
       </c>
       <c r="S46" t="n">
-        <v>1011.239925579203</v>
+        <v>1158.352459338911</v>
       </c>
       <c r="T46" t="n">
-        <v>933.4888509673523</v>
+        <v>1080.60138472706</v>
       </c>
       <c r="U46" t="n">
-        <v>644.3464480128969</v>
+        <v>938.5715155323123</v>
       </c>
       <c r="V46" t="n">
-        <v>536.7744935667178</v>
+        <v>830.9995610861332</v>
       </c>
       <c r="W46" t="n">
-        <v>394.4698572894649</v>
+        <v>688.6949248088804</v>
       </c>
       <c r="X46" t="n">
-        <v>313.5928401511554</v>
+        <v>607.8179076705708</v>
       </c>
       <c r="Y46" t="n">
-        <v>239.912794767333</v>
+        <v>534.1378622867485</v>
       </c>
     </row>
   </sheetData>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>205.6616725415523</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>241.6784263988283</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>325.5939698640773</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>316.758458114576</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>40.87528770545092</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8778,10 +8778,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>188.7741878393832</v>
       </c>
       <c r="O12" t="n">
-        <v>188.774187839384</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8927,28 +8927,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>205.6616725415523</v>
+        <v>72.58181122675438</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>325.5939698640772</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>316.7584581145759</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>40.87528770545092</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>125.315323246174</v>
+        <v>125.315323246173</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>327.9241016057886</v>
+        <v>327.9241016057883</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>50.61287514246088</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9176,16 +9176,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>345.1000650488705</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>45.68876158537255</v>
       </c>
       <c r="R17" t="n">
-        <v>40.87528770545092</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>188.7741878393834</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>188.7741878393835</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9401,28 +9401,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>380.4759295761908</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>325.5939698640774</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>202.8020871047448</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>25.7717429749317</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>40.87528770545092</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,19 +9477,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>348.6959764366762</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>176.2465344789653</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>28.01113027177519</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9638,7 +9638,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>117.7095646985216</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>363.1144472533337</v>
+        <v>363.1144472533333</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9656,10 +9656,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>142.5506968660538</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>40.87528770545092</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,16 +9723,16 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>316.5078530316735</v>
+        <v>372.3251751362807</v>
       </c>
       <c r="N24" t="n">
-        <v>374.280090744546</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9878,7 +9878,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>355.3413493280842</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9893,10 +9893,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>174.8362576050705</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>40.87528770545092</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>38.46664950854574</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>87.43973284659614</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10121,19 +10121,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>174.8362576050701</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>228.3846565366416</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>40.87528770545092</v>
+        <v>40.87528770545089</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>146.9686785486393</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>87.43973284659558</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,10 +10349,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>242.1398374872645</v>
       </c>
       <c r="L32" t="n">
-        <v>266.9809696547959</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>40.87528770545092</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,13 +10434,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>87.43973284659558</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>87.43973284659546</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10586,28 +10586,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>61.3105300170285</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>407.4025276535967</v>
+        <v>215.5890193108991</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>40.87528770545092</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>439.3400459756968</v>
+        <v>439.3400459756974</v>
       </c>
       <c r="N36" t="n">
-        <v>418.5681711448091</v>
+        <v>418.5681711448096</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>125.6058704815924</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.53680911445514</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,28 +10820,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>416.2380394030982</v>
+        <v>416.2380394030985</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>264.7900089274333</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>148.9489492157286</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>40.87528770545092</v>
@@ -10899,22 +10899,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>5.039884778044378</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>246.4831478173526</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>418.5681711448093</v>
+        <v>418.5681711448095</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>26.48409644590967</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11066,10 +11066,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>416.2380394030982</v>
+        <v>273.6255206769346</v>
       </c>
       <c r="N41" t="n">
-        <v>407.4025276535969</v>
+        <v>407.4025276535971</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>328.8829958859042</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>29.74573664612421</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>352.8719979589225</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>407.4025276535967</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>273.6255206769333</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>40.87528770545092</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>337.4028008142955</v>
+        <v>125.6058704815936</v>
       </c>
       <c r="M45" t="n">
-        <v>439.3400459756971</v>
+        <v>439.3400459756969</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>418.5681711448091</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>303.3026304363736</v>
       </c>
       <c r="C11" t="n">
         <v>285.8416805439006</v>
@@ -23264,10 +23264,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>302.4991588451549</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>327.4448345146045</v>
+        <v>227.5781269383939</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>23.81896975173338</v>
+        <v>23.81896975173335</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.21019719500376</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>26.9086372081142</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>171.691938427054</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>269.8097574903061</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>290.299889451362</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>303.3026304363736</v>
+        <v>24.06922917633623</v>
       </c>
       <c r="C14" t="n">
         <v>285.8416805439006</v>
@@ -23501,7 +23501,7 @@
         <v>275.251830393576</v>
       </c>
       <c r="E14" t="n">
-        <v>302.4991588451549</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>231.5596978048558</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>23.81896975173339</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,16 +23549,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>171.6919384270541</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>135.6379353298122</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>290.2998894513621</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>179.8983226496901</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>179.8983226496899</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -24020,16 +24020,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>11.0084866337688</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>168.889836015921</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>179.898322649688</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>906363.7369249307</v>
+        <v>906363.7369249306</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>906363.7369249307</v>
+        <v>906363.7369249306</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1078005.55783359</v>
+        <v>1078005.557833589</v>
       </c>
     </row>
     <row r="12">
@@ -26317,40 +26317,40 @@
         <v>471083.894762297</v>
       </c>
       <c r="D2" t="n">
-        <v>471083.894762297</v>
+        <v>471083.8947622969</v>
       </c>
       <c r="E2" t="n">
         <v>412482.0714808935</v>
       </c>
       <c r="F2" t="n">
-        <v>412482.0714808936</v>
+        <v>412482.0714808934</v>
       </c>
       <c r="G2" t="n">
+        <v>463865.0714442863</v>
+      </c>
+      <c r="H2" t="n">
         <v>463865.0714442864</v>
       </c>
-      <c r="H2" t="n">
-        <v>463865.0714442861</v>
-      </c>
       <c r="I2" t="n">
+        <v>472099.0176719626</v>
+      </c>
+      <c r="J2" t="n">
+        <v>472099.0176719633</v>
+      </c>
+      <c r="K2" t="n">
+        <v>472099.0176719626</v>
+      </c>
+      <c r="L2" t="n">
         <v>472099.0176719627</v>
       </c>
-      <c r="J2" t="n">
-        <v>472099.0176719628</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>472099.0176719627</v>
       </c>
-      <c r="L2" t="n">
-        <v>472099.0176719629</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>472099.0176719626</v>
       </c>
-      <c r="N2" t="n">
-        <v>472099.0176719624</v>
-      </c>
       <c r="O2" t="n">
-        <v>472099.0176719625</v>
+        <v>472099.0176719627</v>
       </c>
       <c r="P2" t="n">
         <v>472099.0176719626</v>
@@ -26372,28 +26372,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>793631.6724150431</v>
+        <v>793631.6724150429</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>63544.96898168554</v>
+        <v>63544.96898168562</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>12327.03098776754</v>
+        <v>12327.03098776733</v>
       </c>
       <c r="J3" t="n">
-        <v>75688.18005323119</v>
+        <v>75688.18005323122</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>63544.96898168557</v>
+        <v>63544.96898168563</v>
       </c>
       <c r="M3" t="n">
         <v>137355.3289379699</v>
@@ -26433,13 +26433,13 @@
         <v>201402.0326272213</v>
       </c>
       <c r="H4" t="n">
-        <v>201402.0326272213</v>
+        <v>201402.0326272214</v>
       </c>
       <c r="I4" t="n">
-        <v>206599.1074736612</v>
+        <v>206599.1074736613</v>
       </c>
       <c r="J4" t="n">
-        <v>194191.118073848</v>
+        <v>194191.1180738481</v>
       </c>
       <c r="K4" t="n">
         <v>194191.118073848</v>
@@ -26448,13 +26448,13 @@
         <v>194191.118073848</v>
       </c>
       <c r="M4" t="n">
-        <v>204259.4638285998</v>
+        <v>204259.4638285999</v>
       </c>
       <c r="N4" t="n">
         <v>204259.4638285999</v>
       </c>
       <c r="O4" t="n">
-        <v>204259.4638285999</v>
+        <v>204259.4638285998</v>
       </c>
       <c r="P4" t="n">
         <v>204259.4638285999</v>
@@ -26476,37 +26476,37 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>57243.92344591297</v>
+        <v>57243.92344591294</v>
       </c>
       <c r="F5" t="n">
-        <v>57243.92344591297</v>
+        <v>57243.92344591294</v>
       </c>
       <c r="G5" t="n">
         <v>63921.62594256461</v>
       </c>
       <c r="H5" t="n">
-        <v>63921.62594256461</v>
+        <v>63921.62594256464</v>
       </c>
       <c r="I5" t="n">
-        <v>66740.07008220107</v>
+        <v>66740.07008220105</v>
       </c>
       <c r="J5" t="n">
-        <v>77650.54597770234</v>
+        <v>77650.54597770231</v>
       </c>
       <c r="K5" t="n">
-        <v>77650.54597770232</v>
+        <v>77650.54597770231</v>
       </c>
       <c r="L5" t="n">
         <v>77650.54597770231</v>
       </c>
       <c r="M5" t="n">
-        <v>68321.30794187219</v>
+        <v>68321.30794187222</v>
       </c>
       <c r="N5" t="n">
-        <v>68321.30794187219</v>
+        <v>68321.3079418722</v>
       </c>
       <c r="O5" t="n">
-        <v>68321.30794187219</v>
+        <v>68321.3079418722</v>
       </c>
       <c r="P5" t="n">
         <v>68321.30794187219</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1182.415043048888</v>
+        <v>1178.001465180717</v>
       </c>
       <c r="C6" t="n">
-        <v>1182.415043048888</v>
+        <v>1178.001465180717</v>
       </c>
       <c r="D6" t="n">
-        <v>1182.415043048888</v>
+        <v>1178.001465180659</v>
       </c>
       <c r="E6" t="n">
-        <v>-588985.3265978468</v>
+        <v>-589244.5307117209</v>
       </c>
       <c r="F6" t="n">
-        <v>204646.3458171964</v>
+        <v>204387.141703322</v>
       </c>
       <c r="G6" t="n">
-        <v>134996.443892815</v>
+        <v>134960.6441266075</v>
       </c>
       <c r="H6" t="n">
-        <v>198541.4128745003</v>
+        <v>198505.613108293</v>
       </c>
       <c r="I6" t="n">
         <v>186432.8091283329</v>
       </c>
       <c r="J6" t="n">
-        <v>124569.1735671812</v>
+        <v>124569.1735671817</v>
       </c>
       <c r="K6" t="n">
-        <v>200257.3536204125</v>
+        <v>200257.3536204124</v>
       </c>
       <c r="L6" t="n">
-        <v>136712.384638727</v>
+        <v>136712.3846387268</v>
       </c>
       <c r="M6" t="n">
         <v>62162.91696352072</v>
       </c>
       <c r="N6" t="n">
-        <v>199518.2459014903</v>
+        <v>199518.2459014905</v>
       </c>
       <c r="O6" t="n">
-        <v>199518.2459014904</v>
+        <v>199518.2459014907</v>
       </c>
       <c r="P6" t="n">
         <v>199518.2459014905</v>
@@ -26692,37 +26692,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="F2" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="G2" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="H2" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="I2" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="J2" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="K2" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="L2" t="n">
         <v>79.43121122710693</v>
       </c>
       <c r="M2" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="N2" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="O2" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="P2" t="n">
         <v>145.6414084221107</v>
@@ -26744,25 +26744,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="F3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973007</v>
       </c>
       <c r="G3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973007</v>
       </c>
       <c r="H3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973007</v>
       </c>
       <c r="I3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973007</v>
       </c>
       <c r="J3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="K3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973009</v>
       </c>
       <c r="L3" t="n">
         <v>691.8460543973008</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>583.6180421611868</v>
+        <v>583.6180421611865</v>
       </c>
       <c r="F4" t="n">
-        <v>583.6180421611868</v>
+        <v>583.6180421611865</v>
       </c>
       <c r="G4" t="n">
-        <v>583.6180421611867</v>
+        <v>583.6180421611866</v>
       </c>
       <c r="H4" t="n">
-        <v>583.6180421611867</v>
+        <v>583.6180421611871</v>
       </c>
       <c r="I4" t="n">
-        <v>629.9740312999443</v>
+        <v>629.9740312999438</v>
       </c>
       <c r="J4" t="n">
-        <v>919.2532811708803</v>
+        <v>919.25328117088</v>
       </c>
       <c r="K4" t="n">
-        <v>919.2532811708802</v>
+        <v>919.2532811708801</v>
       </c>
       <c r="L4" t="n">
         <v>919.2532811708801</v>
       </c>
       <c r="M4" t="n">
+        <v>674.2621117002079</v>
+      </c>
+      <c r="N4" t="n">
+        <v>674.2621117002078</v>
+      </c>
+      <c r="O4" t="n">
+        <v>674.2621117002078</v>
+      </c>
+      <c r="P4" t="n">
         <v>674.2621117002074</v>
-      </c>
-      <c r="N4" t="n">
-        <v>674.2621117002076</v>
-      </c>
-      <c r="O4" t="n">
-        <v>674.2621117002076</v>
-      </c>
-      <c r="P4" t="n">
-        <v>674.2621117002076</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710703</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710704</v>
       </c>
       <c r="M2" t="n">
-        <v>66.21019719500376</v>
+        <v>66.21019719500367</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>583.6180421611868</v>
+        <v>583.6180421611865</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
-        <v>46.35598913875754</v>
+        <v>46.35598913875674</v>
       </c>
       <c r="J4" t="n">
-        <v>289.279249870936</v>
+        <v>289.2792498709362</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>338.6268726905141</v>
+        <v>338.6268726905143</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710703</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>583.6180421611868</v>
+        <v>583.6180421611865</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="C11" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="D11" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="E11" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="F11" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="G11" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="H11" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="I11" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="T11" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="U11" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="V11" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="W11" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="X11" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="Y11" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
     </row>
     <row r="12">
@@ -28169,10 +28169,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="D12" t="n">
-        <v>79.43121122710693</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>38.1608637285961</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,22 +28217,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>67.11943691067854</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>79.43121122710693</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>25.84908941216949</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="C13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="D13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="E13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="F13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="G13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="H13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="I13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="J13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="K13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="L13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="M13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="N13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="O13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="P13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="Q13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="R13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="S13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="T13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="U13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="V13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="W13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="X13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="Y13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="C14" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="D14" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="E14" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="F14" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="G14" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="H14" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="I14" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="T14" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="U14" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="V14" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="W14" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="X14" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="Y14" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
     </row>
     <row r="15">
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -28412,16 +28412,16 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>79.43121122710693</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>79.43121122710693</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="H15" t="n">
-        <v>18.08533776941347</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28451,13 +28451,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.763751642754514</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>25.84908941216932</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="C16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="D16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="E16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="F16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="G16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="H16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="I16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="J16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="K16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="L16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="M16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="N16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="O16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="P16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="Q16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="R16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="S16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="T16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="U16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="V16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="W16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="X16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="Y16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="C17" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="D17" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="E17" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="F17" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="G17" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="H17" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="I17" t="n">
         <v>103.2501809788403</v>
@@ -28615,22 +28615,22 @@
         <v>145.6414084221107</v>
       </c>
       <c r="T17" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="U17" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="V17" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="W17" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="X17" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="Y17" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
     </row>
     <row r="18">
@@ -28646,22 +28646,22 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>18.83433604502264</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.8553954612995</v>
       </c>
       <c r="H18" t="n">
         <v>97.863321483828</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>30.42400614836236</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28719,10 +28719,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="C19" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -28737,13 +28737,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>151.1349521598894</v>
       </c>
       <c r="I19" t="n">
-        <v>42.64332567528605</v>
+        <v>117.9320036494506</v>
       </c>
       <c r="J19" t="n">
-        <v>5.154479050315274</v>
+        <v>5.154479050315288</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>121.1971522780048</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="T19" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="U19" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="V19" t="n">
-        <v>158.8624224542139</v>
+        <v>53.63594459816386</v>
       </c>
       <c r="W19" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="X19" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="Y19" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="C20" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="D20" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="E20" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="F20" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="G20" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="H20" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="I20" t="n">
         <v>103.2501809788403</v>
@@ -28852,22 +28852,22 @@
         <v>145.6414084221107</v>
       </c>
       <c r="T20" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="U20" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="V20" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="W20" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="X20" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="Y20" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
     </row>
     <row r="21">
@@ -28877,7 +28877,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -28895,10 +28895,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>97.863321483828</v>
+        <v>74.1761445463427</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>38.16086372859611</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,10 +28925,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>7.763751642754528</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>144.0419631757947</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -28946,7 +28946,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>7.416979155447393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="C22" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -28971,16 +28971,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="H22" t="n">
-        <v>151.1349521598894</v>
+        <v>97.01511891133094</v>
       </c>
       <c r="I22" t="n">
         <v>117.9320036494506</v>
       </c>
       <c r="J22" t="n">
-        <v>5.154479050315274</v>
+        <v>5.154479050315288</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29007,25 +29007,25 @@
         <v>121.1971522780048</v>
       </c>
       <c r="S22" t="n">
-        <v>104.7425892056563</v>
+        <v>158.862422454214</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>158.862422454214</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="X22" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>158.862422454214</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="C23" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="D23" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="E23" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="F23" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="G23" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="H23" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="I23" t="n">
         <v>103.2501809788403</v>
@@ -29089,22 +29089,22 @@
         <v>145.6414084221107</v>
       </c>
       <c r="T23" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="U23" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="V23" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="W23" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="X23" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="Y23" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
     </row>
     <row r="24">
@@ -29129,7 +29129,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>84.24440044380069</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -29162,10 +29162,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.763751642754514</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>76.48064880104396</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="C25" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -29208,16 +29208,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>151.1349521598894</v>
       </c>
       <c r="I25" t="n">
         <v>117.9320036494506</v>
       </c>
       <c r="J25" t="n">
-        <v>5.154479050315274</v>
+        <v>5.154479050315288</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>121.1971522780048</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>158.8624224542139</v>
+        <v>67.07731902944658</v>
       </c>
       <c r="T25" t="n">
-        <v>97.01511891133197</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>158.862422454214</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>158.862422454214</v>
       </c>
       <c r="W25" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="X25" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="Y25" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="C26" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="D26" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="E26" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="F26" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="G26" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="H26" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="I26" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="T26" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="U26" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="V26" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="W26" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="X26" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="Y26" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="C28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="D28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="E28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="F28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="G28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="H28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="I28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="J28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="K28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="L28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="M28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="N28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="O28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="P28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="R28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="S28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="T28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="U28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="V28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="W28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="X28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="Y28" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="C29" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="D29" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="E29" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="F29" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="G29" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="H29" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="I29" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="T29" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="U29" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="V29" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="W29" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="X29" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="Y29" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710691</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="C31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="D31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="E31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="F31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="G31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="H31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="I31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="J31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="K31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="L31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="M31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="N31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="O31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="P31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="R31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="S31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="T31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="U31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="V31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="W31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="X31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="Y31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710691</v>
       </c>
     </row>
     <row r="32">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="C35" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="D35" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="E35" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="F35" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="G35" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="H35" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="I35" t="n">
         <v>103.2501809788403</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="T35" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="U35" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="V35" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="W35" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="X35" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
     </row>
     <row r="36">
@@ -30141,31 +30141,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="C37" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="D37" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="E37" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="H37" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="I37" t="n">
         <v>117.9320036494506</v>
       </c>
       <c r="J37" t="n">
-        <v>5.154479050315274</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30192,25 +30192,25 @@
         <v>121.1971522780048</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="T37" t="n">
-        <v>145.6414084221107</v>
+        <v>52.84190658481947</v>
       </c>
       <c r="U37" t="n">
-        <v>47.6874275345036</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="V37" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="X37" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="Y37" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="C38" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="D38" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="E38" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="F38" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="G38" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="H38" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="I38" t="n">
         <v>103.2501809788403</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="T38" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="U38" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="V38" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="W38" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="X38" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
     </row>
     <row r="39">
@@ -30378,31 +30378,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="C40" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>145.6414084221107</v>
+        <v>47.68742753450456</v>
       </c>
       <c r="E40" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="H40" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="I40" t="n">
         <v>117.9320036494506</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>5.154479050315274</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30429,25 +30429,25 @@
         <v>121.1971522780048</v>
       </c>
       <c r="S40" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="W40" t="n">
-        <v>52.8419065848191</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="X40" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="Y40" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="C41" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="D41" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="E41" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="F41" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="G41" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="H41" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="I41" t="n">
         <v>103.2501809788403</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="T41" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="U41" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="V41" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="W41" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="X41" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
     </row>
     <row r="42">
@@ -30615,31 +30615,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="C43" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="D43" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="H43" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>117.9320036494506</v>
       </c>
       <c r="J43" t="n">
-        <v>5.154479050315274</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>121.1971522780048</v>
       </c>
       <c r="S43" t="n">
-        <v>145.6414084221107</v>
+        <v>52.84190658481964</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="U43" t="n">
-        <v>19.97802276184365</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="V43" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="W43" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="X43" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
       <c r="Y43" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221106</v>
       </c>
     </row>
     <row r="44">
@@ -30852,16 +30852,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.68742753450366</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="C46" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>145.6414084221107</v>
+        <v>47.68742753450377</v>
       </c>
       <c r="E46" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -30903,13 +30903,13 @@
         <v>121.1971522780048</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="T46" t="n">
         <v>145.6414084221107</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="V46" t="n">
         <v>145.6414084221107</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.781290670943921</v>
+        <v>2.78129067094392</v>
       </c>
       <c r="H11" t="n">
-        <v>28.48389308380444</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I11" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J11" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K11" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L11" t="n">
-        <v>438.9085275549832</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M11" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N11" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O11" t="n">
-        <v>468.6161885340029</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P11" t="n">
-        <v>399.9530750950748</v>
+        <v>399.9530750950747</v>
       </c>
       <c r="Q11" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R11" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S11" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T11" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,46 +31832,46 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H12" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I12" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281897</v>
       </c>
       <c r="J12" t="n">
-        <v>140.5948665827572</v>
+        <v>140.5948665827571</v>
       </c>
       <c r="K12" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L12" t="n">
-        <v>323.1116879522489</v>
+        <v>323.1116879522488</v>
       </c>
       <c r="M12" t="n">
-        <v>377.0560996465289</v>
+        <v>377.0560996465288</v>
       </c>
       <c r="N12" t="n">
-        <v>387.0356526387316</v>
+        <v>387.0356526387314</v>
       </c>
       <c r="O12" t="n">
-        <v>354.0620086121734</v>
+        <v>354.0620086121733</v>
       </c>
       <c r="P12" t="n">
         <v>284.1659765693366</v>
       </c>
       <c r="Q12" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R12" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S12" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T12" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.247591245634477</v>
+        <v>1.247591245634476</v>
       </c>
       <c r="H13" t="n">
         <v>11.09222034755017</v>
       </c>
       <c r="I13" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J13" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K13" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L13" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M13" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N13" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O13" t="n">
         <v>176.341351701135</v>
       </c>
       <c r="P13" t="n">
-        <v>150.8904902901916</v>
+        <v>150.8904902901915</v>
       </c>
       <c r="Q13" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R13" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S13" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T13" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06805043158006245</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.781290670943921</v>
+        <v>2.78129067094392</v>
       </c>
       <c r="H14" t="n">
-        <v>28.48389308380444</v>
+        <v>28.48389308380443</v>
       </c>
       <c r="I14" t="n">
         <v>107.2257085915656</v>
@@ -32002,7 +32002,7 @@
         <v>353.790603184083</v>
       </c>
       <c r="L14" t="n">
-        <v>438.9085275549832</v>
+        <v>438.9085275549831</v>
       </c>
       <c r="M14" t="n">
         <v>488.370305524382</v>
@@ -32011,10 +32011,10 @@
         <v>496.2726476432015</v>
       </c>
       <c r="O14" t="n">
-        <v>468.6161885340029</v>
+        <v>468.6161885340028</v>
       </c>
       <c r="P14" t="n">
-        <v>399.9530750950748</v>
+        <v>399.9530750950747</v>
       </c>
       <c r="Q14" t="n">
         <v>300.3481029418955</v>
@@ -32023,7 +32023,7 @@
         <v>174.7102501086812</v>
       </c>
       <c r="S14" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413465</v>
       </c>
       <c r="T14" t="n">
         <v>12.17509991205702</v>
@@ -32072,25 +32072,25 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I15" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281897</v>
       </c>
       <c r="J15" t="n">
-        <v>140.5948665827572</v>
+        <v>140.5948665827571</v>
       </c>
       <c r="K15" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L15" t="n">
-        <v>323.1116879522489</v>
+        <v>323.1116879522488</v>
       </c>
       <c r="M15" t="n">
-        <v>377.0560996465289</v>
+        <v>377.0560996465288</v>
       </c>
       <c r="N15" t="n">
-        <v>387.0356526387316</v>
+        <v>387.0356526387314</v>
       </c>
       <c r="O15" t="n">
-        <v>354.0620086121734</v>
+        <v>354.0620086121733</v>
       </c>
       <c r="P15" t="n">
         <v>284.1659765693366</v>
@@ -32099,16 +32099,16 @@
         <v>189.9574298790476</v>
       </c>
       <c r="R15" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988861</v>
       </c>
       <c r="S15" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T15" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633199</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678788</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,7 +32145,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.247591245634477</v>
+        <v>1.247591245634476</v>
       </c>
       <c r="H16" t="n">
         <v>11.09222034755017</v>
@@ -32154,7 +32154,7 @@
         <v>37.51847127780773</v>
       </c>
       <c r="J16" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635749</v>
       </c>
       <c r="K16" t="n">
         <v>144.9474192655328</v>
@@ -32172,22 +32172,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P16" t="n">
-        <v>150.8904902901916</v>
+        <v>150.8904902901915</v>
       </c>
       <c r="Q16" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R16" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916472</v>
       </c>
       <c r="S16" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T16" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438217</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06805043158006245</v>
+        <v>0.06805043158006244</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.781290670943921</v>
+        <v>2.78129067094392</v>
       </c>
       <c r="H17" t="n">
-        <v>28.48389308380444</v>
+        <v>28.48389308380443</v>
       </c>
       <c r="I17" t="n">
         <v>107.2257085915656</v>
@@ -32239,7 +32239,7 @@
         <v>353.790603184083</v>
       </c>
       <c r="L17" t="n">
-        <v>438.9085275549832</v>
+        <v>438.9085275549831</v>
       </c>
       <c r="M17" t="n">
         <v>488.370305524382</v>
@@ -32248,10 +32248,10 @@
         <v>496.2726476432015</v>
       </c>
       <c r="O17" t="n">
-        <v>468.6161885340029</v>
+        <v>468.6161885340028</v>
       </c>
       <c r="P17" t="n">
-        <v>399.9530750950748</v>
+        <v>399.9530750950747</v>
       </c>
       <c r="Q17" t="n">
         <v>300.3481029418955</v>
@@ -32260,7 +32260,7 @@
         <v>174.7102501086812</v>
       </c>
       <c r="S17" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413465</v>
       </c>
       <c r="T17" t="n">
         <v>12.17509991205702</v>
@@ -32309,25 +32309,25 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I18" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281897</v>
       </c>
       <c r="J18" t="n">
-        <v>140.5948665827572</v>
+        <v>140.5948665827571</v>
       </c>
       <c r="K18" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L18" t="n">
-        <v>323.1116879522489</v>
+        <v>323.1116879522488</v>
       </c>
       <c r="M18" t="n">
-        <v>377.0560996465289</v>
+        <v>377.0560996465288</v>
       </c>
       <c r="N18" t="n">
-        <v>387.0356526387316</v>
+        <v>387.0356526387314</v>
       </c>
       <c r="O18" t="n">
-        <v>354.0620086121734</v>
+        <v>354.0620086121733</v>
       </c>
       <c r="P18" t="n">
         <v>284.1659765693366</v>
@@ -32336,16 +32336,16 @@
         <v>189.9574298790476</v>
       </c>
       <c r="R18" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988861</v>
       </c>
       <c r="S18" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T18" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633199</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678788</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,7 +32382,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.247591245634477</v>
+        <v>1.247591245634476</v>
       </c>
       <c r="H19" t="n">
         <v>11.09222034755017</v>
@@ -32391,7 +32391,7 @@
         <v>37.51847127780773</v>
       </c>
       <c r="J19" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635749</v>
       </c>
       <c r="K19" t="n">
         <v>144.9474192655328</v>
@@ -32409,22 +32409,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P19" t="n">
-        <v>150.8904902901916</v>
+        <v>150.8904902901915</v>
       </c>
       <c r="Q19" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R19" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916472</v>
       </c>
       <c r="S19" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T19" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438217</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06805043158006245</v>
+        <v>0.06805043158006244</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,10 +32461,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.781290670943921</v>
+        <v>2.78129067094392</v>
       </c>
       <c r="H20" t="n">
-        <v>28.48389308380444</v>
+        <v>28.48389308380443</v>
       </c>
       <c r="I20" t="n">
         <v>107.2257085915656</v>
@@ -32476,7 +32476,7 @@
         <v>353.790603184083</v>
       </c>
       <c r="L20" t="n">
-        <v>438.9085275549832</v>
+        <v>438.9085275549831</v>
       </c>
       <c r="M20" t="n">
         <v>488.370305524382</v>
@@ -32485,10 +32485,10 @@
         <v>496.2726476432015</v>
       </c>
       <c r="O20" t="n">
-        <v>468.6161885340029</v>
+        <v>468.6161885340028</v>
       </c>
       <c r="P20" t="n">
-        <v>399.9530750950748</v>
+        <v>399.9530750950747</v>
       </c>
       <c r="Q20" t="n">
         <v>300.3481029418955</v>
@@ -32497,7 +32497,7 @@
         <v>174.7102501086812</v>
       </c>
       <c r="S20" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413465</v>
       </c>
       <c r="T20" t="n">
         <v>12.17509991205702</v>
@@ -32546,25 +32546,25 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I21" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281897</v>
       </c>
       <c r="J21" t="n">
-        <v>140.5948665827572</v>
+        <v>140.5948665827571</v>
       </c>
       <c r="K21" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L21" t="n">
-        <v>323.1116879522489</v>
+        <v>323.1116879522488</v>
       </c>
       <c r="M21" t="n">
-        <v>377.0560996465289</v>
+        <v>377.0560996465288</v>
       </c>
       <c r="N21" t="n">
-        <v>387.0356526387316</v>
+        <v>387.0356526387314</v>
       </c>
       <c r="O21" t="n">
-        <v>354.0620086121734</v>
+        <v>354.0620086121733</v>
       </c>
       <c r="P21" t="n">
         <v>284.1659765693366</v>
@@ -32573,16 +32573,16 @@
         <v>189.9574298790476</v>
       </c>
       <c r="R21" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988861</v>
       </c>
       <c r="S21" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T21" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633199</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678788</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,7 +32619,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.247591245634477</v>
+        <v>1.247591245634476</v>
       </c>
       <c r="H22" t="n">
         <v>11.09222034755017</v>
@@ -32628,7 +32628,7 @@
         <v>37.51847127780773</v>
       </c>
       <c r="J22" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635749</v>
       </c>
       <c r="K22" t="n">
         <v>144.9474192655328</v>
@@ -32646,22 +32646,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P22" t="n">
-        <v>150.8904902901916</v>
+        <v>150.8904902901915</v>
       </c>
       <c r="Q22" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R22" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916472</v>
       </c>
       <c r="S22" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T22" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438217</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06805043158006245</v>
+        <v>0.06805043158006244</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,10 +32698,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.781290670943921</v>
+        <v>2.78129067094392</v>
       </c>
       <c r="H23" t="n">
-        <v>28.48389308380444</v>
+        <v>28.48389308380443</v>
       </c>
       <c r="I23" t="n">
         <v>107.2257085915656</v>
@@ -32713,7 +32713,7 @@
         <v>353.790603184083</v>
       </c>
       <c r="L23" t="n">
-        <v>438.9085275549832</v>
+        <v>438.9085275549831</v>
       </c>
       <c r="M23" t="n">
         <v>488.370305524382</v>
@@ -32722,10 +32722,10 @@
         <v>496.2726476432015</v>
       </c>
       <c r="O23" t="n">
-        <v>468.6161885340029</v>
+        <v>468.6161885340028</v>
       </c>
       <c r="P23" t="n">
-        <v>399.9530750950748</v>
+        <v>399.9530750950747</v>
       </c>
       <c r="Q23" t="n">
         <v>300.3481029418955</v>
@@ -32734,7 +32734,7 @@
         <v>174.7102501086812</v>
       </c>
       <c r="S23" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413465</v>
       </c>
       <c r="T23" t="n">
         <v>12.17509991205702</v>
@@ -32783,25 +32783,25 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I24" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281897</v>
       </c>
       <c r="J24" t="n">
-        <v>140.5948665827572</v>
+        <v>140.5948665827571</v>
       </c>
       <c r="K24" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L24" t="n">
-        <v>323.1116879522489</v>
+        <v>323.1116879522488</v>
       </c>
       <c r="M24" t="n">
-        <v>377.0560996465289</v>
+        <v>377.0560996465288</v>
       </c>
       <c r="N24" t="n">
-        <v>387.0356526387316</v>
+        <v>387.0356526387314</v>
       </c>
       <c r="O24" t="n">
-        <v>354.0620086121734</v>
+        <v>354.0620086121733</v>
       </c>
       <c r="P24" t="n">
         <v>284.1659765693366</v>
@@ -32810,16 +32810,16 @@
         <v>189.9574298790476</v>
       </c>
       <c r="R24" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988861</v>
       </c>
       <c r="S24" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T24" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633199</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678788</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,7 +32856,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.247591245634477</v>
+        <v>1.247591245634476</v>
       </c>
       <c r="H25" t="n">
         <v>11.09222034755017</v>
@@ -32865,7 +32865,7 @@
         <v>37.51847127780773</v>
       </c>
       <c r="J25" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635749</v>
       </c>
       <c r="K25" t="n">
         <v>144.9474192655328</v>
@@ -32883,22 +32883,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P25" t="n">
-        <v>150.8904902901916</v>
+        <v>150.8904902901915</v>
       </c>
       <c r="Q25" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R25" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916472</v>
       </c>
       <c r="S25" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T25" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438217</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06805043158006245</v>
+        <v>0.06805043158006244</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.781290670943921</v>
+        <v>2.78129067094392</v>
       </c>
       <c r="H26" t="n">
-        <v>28.48389308380444</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I26" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J26" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K26" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L26" t="n">
-        <v>438.9085275549832</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M26" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N26" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O26" t="n">
-        <v>468.6161885340029</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P26" t="n">
-        <v>399.9530750950748</v>
+        <v>399.9530750950747</v>
       </c>
       <c r="Q26" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R26" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S26" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T26" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,46 +33017,46 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H27" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I27" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281897</v>
       </c>
       <c r="J27" t="n">
-        <v>140.5948665827572</v>
+        <v>140.5948665827571</v>
       </c>
       <c r="K27" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L27" t="n">
-        <v>323.1116879522489</v>
+        <v>323.1116879522488</v>
       </c>
       <c r="M27" t="n">
-        <v>377.0560996465289</v>
+        <v>377.0560996465288</v>
       </c>
       <c r="N27" t="n">
-        <v>387.0356526387316</v>
+        <v>387.0356526387314</v>
       </c>
       <c r="O27" t="n">
-        <v>354.0620086121734</v>
+        <v>354.0620086121733</v>
       </c>
       <c r="P27" t="n">
         <v>284.1659765693366</v>
       </c>
       <c r="Q27" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R27" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S27" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T27" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.247591245634477</v>
+        <v>1.247591245634476</v>
       </c>
       <c r="H28" t="n">
         <v>11.09222034755017</v>
       </c>
       <c r="I28" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J28" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K28" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L28" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M28" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N28" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O28" t="n">
         <v>176.341351701135</v>
       </c>
       <c r="P28" t="n">
-        <v>150.8904902901916</v>
+        <v>150.8904902901915</v>
       </c>
       <c r="Q28" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R28" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S28" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T28" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06805043158006245</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33184,37 +33184,37 @@
         <v>236.0585690830268</v>
       </c>
       <c r="K29" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840831</v>
       </c>
       <c r="L29" t="n">
         <v>438.9085275549832</v>
       </c>
       <c r="M29" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243822</v>
       </c>
       <c r="N29" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432016</v>
       </c>
       <c r="O29" t="n">
-        <v>468.6161885340029</v>
+        <v>468.616188534003</v>
       </c>
       <c r="P29" t="n">
         <v>399.9530750950748</v>
       </c>
       <c r="Q29" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418956</v>
       </c>
       <c r="R29" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S29" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413467</v>
       </c>
       <c r="T29" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755137</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,13 +33251,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.488121701911175</v>
+        <v>1.488121701911176</v>
       </c>
       <c r="H30" t="n">
         <v>14.37212275266846</v>
       </c>
       <c r="I30" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281899</v>
       </c>
       <c r="J30" t="n">
         <v>140.5948665827572</v>
@@ -33278,22 +33278,22 @@
         <v>354.0620086121734</v>
       </c>
       <c r="P30" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693367</v>
       </c>
       <c r="Q30" t="n">
         <v>189.9574298790476</v>
       </c>
       <c r="R30" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988863</v>
       </c>
       <c r="S30" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804309</v>
       </c>
       <c r="T30" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633201</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678791</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,13 +33333,13 @@
         <v>1.247591245634477</v>
       </c>
       <c r="H31" t="n">
-        <v>11.09222034755017</v>
+        <v>11.09222034755018</v>
       </c>
       <c r="I31" t="n">
         <v>37.51847127780773</v>
       </c>
       <c r="J31" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635752</v>
       </c>
       <c r="K31" t="n">
         <v>144.9474192655328</v>
@@ -33348,7 +33348,7 @@
         <v>185.4827930100567</v>
       </c>
       <c r="M31" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225026</v>
       </c>
       <c r="N31" t="n">
         <v>190.9154857978651</v>
@@ -33363,13 +33363,13 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R31" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916474</v>
       </c>
       <c r="S31" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T31" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438219</v>
       </c>
       <c r="U31" t="n">
         <v>0.06805043158006245</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>224.1092797284143</v>
+        <v>55.01266455634044</v>
       </c>
       <c r="K11" t="n">
-        <v>339.3624246806547</v>
+        <v>133.7007521391023</v>
       </c>
       <c r="L11" t="n">
-        <v>203.1421125849959</v>
+        <v>444.8205389838241</v>
       </c>
       <c r="M11" t="n">
-        <v>258.0240722971093</v>
+        <v>583.6180421611865</v>
       </c>
       <c r="N11" t="n">
-        <v>266.8595840466106</v>
+        <v>583.6180421611865</v>
       </c>
       <c r="O11" t="n">
-        <v>238.5179771123162</v>
+        <v>238.517977112316</v>
       </c>
       <c r="P11" t="n">
-        <v>490.5187875112879</v>
+        <v>168.7200793398051</v>
       </c>
       <c r="Q11" t="n">
-        <v>290.3574037273507</v>
+        <v>78.04241306744595</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>24.84113216753147</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>139.8482752564993</v>
+        <v>139.8482752564992</v>
       </c>
       <c r="K12" t="n">
-        <v>366.9228186490255</v>
+        <v>366.9228186490254</v>
       </c>
       <c r="L12" t="n">
-        <v>184.5573081723747</v>
+        <v>184.5573081723746</v>
       </c>
       <c r="M12" t="n">
-        <v>234.9220657245106</v>
+        <v>234.9220657245104</v>
       </c>
       <c r="N12" t="n">
-        <v>255.6939405553983</v>
+        <v>444.4681283947813</v>
       </c>
       <c r="O12" t="n">
-        <v>400.2399520071129</v>
+        <v>211.4657641677288</v>
       </c>
       <c r="P12" t="n">
-        <v>468.6543377949436</v>
+        <v>468.6543377949435</v>
       </c>
       <c r="Q12" t="n">
-        <v>260.0529435288752</v>
+        <v>260.0529435288751</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.27673217679165</v>
+        <v>74.27673217679168</v>
       </c>
       <c r="K13" t="n">
         <v>202.1091386667569</v>
@@ -35586,7 +35586,7 @@
         <v>227.600260782192</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.73792218940496</v>
+        <v>97.73792218940498</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>224.1092797284143</v>
       </c>
       <c r="K14" t="n">
-        <v>339.3624246806547</v>
+        <v>206.2825633658568</v>
       </c>
       <c r="L14" t="n">
         <v>203.1421125849959</v>
       </c>
       <c r="M14" t="n">
-        <v>258.0240722971093</v>
+        <v>583.6180421611865</v>
       </c>
       <c r="N14" t="n">
-        <v>266.8595840466106</v>
+        <v>583.6180421611865</v>
       </c>
       <c r="O14" t="n">
-        <v>238.5179771123162</v>
+        <v>238.5179771123161</v>
       </c>
       <c r="P14" t="n">
-        <v>490.5187875112879</v>
+        <v>168.7200793398052</v>
       </c>
       <c r="Q14" t="n">
-        <v>290.3574037273507</v>
+        <v>78.04241306744601</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>24.8411321675315</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,16 +35726,16 @@
         <v>139.8482752564993</v>
       </c>
       <c r="K15" t="n">
-        <v>227.7729048826209</v>
+        <v>227.7729048826199</v>
       </c>
       <c r="L15" t="n">
-        <v>184.5573081723747</v>
+        <v>184.5573081723746</v>
       </c>
       <c r="M15" t="n">
-        <v>234.9220657245106</v>
+        <v>234.9220657245105</v>
       </c>
       <c r="N15" t="n">
-        <v>583.6180421611868</v>
+        <v>583.6180421611865</v>
       </c>
       <c r="O15" t="n">
         <v>211.4657641677289</v>
@@ -35805,10 +35805,10 @@
         <v>74.27673217679165</v>
       </c>
       <c r="K16" t="n">
-        <v>202.1091386667569</v>
+        <v>202.1091386667568</v>
       </c>
       <c r="L16" t="n">
-        <v>292.5040294974798</v>
+        <v>292.5040294974797</v>
       </c>
       <c r="M16" t="n">
         <v>314.5806868114501</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>105.6255396988014</v>
+        <v>224.1092797284143</v>
       </c>
       <c r="K17" t="n">
-        <v>457.8461647102672</v>
+        <v>457.8461647102671</v>
       </c>
       <c r="L17" t="n">
         <v>203.1421125849959</v>
       </c>
       <c r="M17" t="n">
-        <v>258.0240722971093</v>
+        <v>258.0240722971092</v>
       </c>
       <c r="N17" t="n">
         <v>266.8595840466106</v>
       </c>
       <c r="O17" t="n">
-        <v>238.5179771123162</v>
+        <v>583.6180421611866</v>
       </c>
       <c r="P17" t="n">
-        <v>490.5187875112879</v>
+        <v>168.7200793398052</v>
       </c>
       <c r="Q17" t="n">
-        <v>290.3574037273507</v>
+        <v>123.7311746528186</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>24.8411321675315</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>139.8482752564993</v>
       </c>
       <c r="K18" t="n">
-        <v>366.9228186490255</v>
+        <v>366.9228186490254</v>
       </c>
       <c r="L18" t="n">
-        <v>184.5573081723747</v>
+        <v>373.3314960117581</v>
       </c>
       <c r="M18" t="n">
-        <v>234.9220657245106</v>
+        <v>234.9220657245105</v>
       </c>
       <c r="N18" t="n">
-        <v>255.6939405553983</v>
+        <v>255.6939405553981</v>
       </c>
       <c r="O18" t="n">
-        <v>400.2399520071124</v>
+        <v>211.4657641677289</v>
       </c>
       <c r="P18" t="n">
         <v>468.6543377949436</v>
@@ -36057,10 +36057,10 @@
         <v>200.9264796151747</v>
       </c>
       <c r="P19" t="n">
-        <v>148.1690495550851</v>
+        <v>148.169049555085</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.30671096229803</v>
+        <v>18.30671096229801</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>55.01266455634052</v>
+        <v>55.0126645563405</v>
       </c>
       <c r="K20" t="n">
-        <v>133.7007521391025</v>
+        <v>457.8461647102671</v>
       </c>
       <c r="L20" t="n">
-        <v>583.6180421611867</v>
+        <v>203.1421125849959</v>
       </c>
       <c r="M20" t="n">
-        <v>583.6180421611867</v>
+        <v>258.0240722971092</v>
       </c>
       <c r="N20" t="n">
-        <v>469.6616711513554</v>
+        <v>266.8595840466106</v>
       </c>
       <c r="O20" t="n">
-        <v>238.5179771123162</v>
+        <v>264.2897200872478</v>
       </c>
       <c r="P20" t="n">
-        <v>168.7200793398052</v>
+        <v>490.5187875112878</v>
       </c>
       <c r="Q20" t="n">
-        <v>78.04241306744606</v>
+        <v>290.3574037273507</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>24.8411321675315</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>13.75723991609047</v>
+        <v>139.8482752564993</v>
       </c>
       <c r="K21" t="n">
-        <v>366.9228186490255</v>
+        <v>366.9228186490254</v>
       </c>
       <c r="L21" t="n">
-        <v>184.5573081723747</v>
+        <v>555.3976534758337</v>
       </c>
       <c r="M21" t="n">
-        <v>583.6180421611867</v>
+        <v>234.9220657245105</v>
       </c>
       <c r="N21" t="n">
-        <v>431.9404750343635</v>
+        <v>255.6939405553981</v>
       </c>
       <c r="O21" t="n">
         <v>211.4657641677289</v>
@@ -36218,7 +36218,7 @@
         <v>468.6543377949436</v>
       </c>
       <c r="Q21" t="n">
-        <v>49.97565579302608</v>
+        <v>77.98678606480124</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36294,10 +36294,10 @@
         <v>200.9264796151747</v>
       </c>
       <c r="P22" t="n">
-        <v>148.1690495550851</v>
+        <v>148.169049555085</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.30671096229803</v>
+        <v>18.30671096229801</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>224.1092797284143</v>
       </c>
       <c r="K23" t="n">
-        <v>133.7007521391025</v>
+        <v>251.410316837624</v>
       </c>
       <c r="L23" t="n">
         <v>620.8033271354464</v>
       </c>
       <c r="M23" t="n">
-        <v>258.0240722971093</v>
+        <v>258.0240722971092</v>
       </c>
       <c r="N23" t="n">
-        <v>629.9740312999443</v>
+        <v>629.9740312999438</v>
       </c>
       <c r="O23" t="n">
-        <v>238.5179771123162</v>
+        <v>238.5179771123161</v>
       </c>
       <c r="P23" t="n">
         <v>168.7200793398052</v>
       </c>
       <c r="Q23" t="n">
-        <v>220.5931099334998</v>
+        <v>78.04241306744601</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>24.8411321675315</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>139.8482752564993</v>
       </c>
       <c r="K24" t="n">
-        <v>366.9228186490255</v>
+        <v>366.9228186490254</v>
       </c>
       <c r="L24" t="n">
-        <v>184.5573081723747</v>
+        <v>184.5573081723746</v>
       </c>
       <c r="M24" t="n">
-        <v>551.4299187561841</v>
+        <v>607.2472408607912</v>
       </c>
       <c r="N24" t="n">
-        <v>629.9740312999443</v>
+        <v>255.6939405553981</v>
       </c>
       <c r="O24" t="n">
         <v>211.4657641677289</v>
       </c>
       <c r="P24" t="n">
-        <v>150.1915691550064</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q24" t="n">
         <v>260.0529435288752</v>
@@ -36531,10 +36531,10 @@
         <v>200.9264796151747</v>
       </c>
       <c r="P25" t="n">
-        <v>148.1690495550851</v>
+        <v>148.169049555085</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.30671096229803</v>
+        <v>18.30671096229801</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>224.1092797284143</v>
+        <v>224.1092797284142</v>
       </c>
       <c r="K26" t="n">
-        <v>457.8461647102672</v>
+        <v>457.8461647102671</v>
       </c>
       <c r="L26" t="n">
-        <v>620.8033271354464</v>
+        <v>558.48346191308</v>
       </c>
       <c r="M26" t="n">
-        <v>707.5376057899418</v>
+        <v>707.5376057899417</v>
       </c>
       <c r="N26" t="n">
-        <v>266.8595840466106</v>
+        <v>266.8595840466105</v>
       </c>
       <c r="O26" t="n">
-        <v>619.3181583750616</v>
+        <v>619.3181583750613</v>
       </c>
       <c r="P26" t="n">
-        <v>490.5187875112879</v>
+        <v>490.5187875112878</v>
       </c>
       <c r="Q26" t="n">
-        <v>252.8786706725165</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>24.84113216753147</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>13.75723991609047</v>
+        <v>139.8482752564992</v>
       </c>
       <c r="K27" t="n">
-        <v>102.4575816364469</v>
+        <v>366.9228186490254</v>
       </c>
       <c r="L27" t="n">
-        <v>223.0239576809204</v>
+        <v>555.3976534758337</v>
       </c>
       <c r="M27" t="n">
-        <v>700.6271294745104</v>
+        <v>322.3617985711066</v>
       </c>
       <c r="N27" t="n">
-        <v>735.0363148989518</v>
+        <v>255.6939405553981</v>
       </c>
       <c r="O27" t="n">
-        <v>605.3280834444585</v>
+        <v>211.4657641677288</v>
       </c>
       <c r="P27" t="n">
-        <v>150.1915691550064</v>
+        <v>468.6543377949435</v>
       </c>
       <c r="Q27" t="n">
-        <v>49.97565579302608</v>
+        <v>260.0529435288751</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.27673217679165</v>
+        <v>74.27673217679168</v>
       </c>
       <c r="K28" t="n">
         <v>202.1091386667569</v>
@@ -36771,7 +36771,7 @@
         <v>227.600260782192</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.73792218940496</v>
+        <v>97.73792218940498</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>224.1092797284143</v>
+        <v>55.01266455634055</v>
       </c>
       <c r="K29" t="n">
-        <v>457.8461647102672</v>
+        <v>457.8461647102673</v>
       </c>
       <c r="L29" t="n">
         <v>620.8033271354464</v>
       </c>
       <c r="M29" t="n">
-        <v>707.5376057899418</v>
+        <v>707.5376057899419</v>
       </c>
       <c r="N29" t="n">
-        <v>441.6958416516807</v>
+        <v>704.2065084585948</v>
       </c>
       <c r="O29" t="n">
         <v>619.3181583750616</v>
       </c>
       <c r="P29" t="n">
-        <v>490.5187875112879</v>
+        <v>397.1047358764469</v>
       </c>
       <c r="Q29" t="n">
-        <v>78.04241306744606</v>
+        <v>78.04241306744612</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>139.8482752564993</v>
+        <v>13.7572399160905</v>
       </c>
       <c r="K30" t="n">
-        <v>366.9228186490255</v>
+        <v>249.4262601850862</v>
       </c>
       <c r="L30" t="n">
-        <v>555.3976534758339</v>
+        <v>555.397653475834</v>
       </c>
       <c r="M30" t="n">
-        <v>322.3617985711061</v>
+        <v>700.6271294745105</v>
       </c>
       <c r="N30" t="n">
         <v>255.6939405553983</v>
       </c>
       <c r="O30" t="n">
-        <v>211.4657641677289</v>
+        <v>605.3280834444586</v>
       </c>
       <c r="P30" t="n">
-        <v>468.6543377949436</v>
+        <v>150.1915691550064</v>
       </c>
       <c r="Q30" t="n">
-        <v>260.0529435288752</v>
+        <v>49.97565579302611</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.27673217679163</v>
+        <v>74.27673217679165</v>
       </c>
       <c r="K31" t="n">
-        <v>202.1091386667568</v>
+        <v>202.1091386667569</v>
       </c>
       <c r="L31" t="n">
-        <v>292.5040294974797</v>
+        <v>292.5040294974798</v>
       </c>
       <c r="M31" t="n">
         <v>314.5806868114501</v>
@@ -37008,7 +37008,7 @@
         <v>227.600260782192</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.73792218940493</v>
+        <v>97.73792218940497</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,10 +37069,10 @@
         <v>224.1092797284143</v>
       </c>
       <c r="K32" t="n">
-        <v>133.7007521391025</v>
+        <v>375.8405896263669</v>
       </c>
       <c r="L32" t="n">
-        <v>470.1230822397918</v>
+        <v>203.1421125849959</v>
       </c>
       <c r="M32" t="n">
         <v>707.5376057899418</v>
@@ -37090,7 +37090,7 @@
         <v>290.3574037273507</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>24.84113216753153</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>555.3976534758339</v>
       </c>
       <c r="M33" t="n">
-        <v>322.3617985711061</v>
+        <v>234.9220657245106</v>
       </c>
       <c r="N33" t="n">
         <v>255.6939405553983</v>
       </c>
       <c r="O33" t="n">
-        <v>211.4657641677289</v>
+        <v>298.9054970143244</v>
       </c>
       <c r="P33" t="n">
         <v>468.6543377949436</v>
@@ -37306,28 +37306,28 @@
         <v>224.1092797284143</v>
       </c>
       <c r="K35" t="n">
-        <v>133.7007521391025</v>
+        <v>457.8461647102672</v>
       </c>
       <c r="L35" t="n">
-        <v>620.8033271354464</v>
+        <v>203.1421125849959</v>
       </c>
       <c r="M35" t="n">
-        <v>319.3346023141378</v>
+        <v>258.0240722971093</v>
       </c>
       <c r="N35" t="n">
-        <v>674.2621117002074</v>
+        <v>482.4486033575097</v>
       </c>
       <c r="O35" t="n">
         <v>238.5179771123162</v>
       </c>
       <c r="P35" t="n">
-        <v>168.7200793398052</v>
+        <v>490.5187875112879</v>
       </c>
       <c r="Q35" t="n">
         <v>290.3574037273507</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>24.84113216753153</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>139.8482752564993</v>
+        <v>13.75723991609047</v>
       </c>
       <c r="K36" t="n">
         <v>102.4575816364469</v>
       </c>
       <c r="L36" t="n">
-        <v>555.3976534758339</v>
+        <v>184.5573081723747</v>
       </c>
       <c r="M36" t="n">
-        <v>674.2621117002074</v>
+        <v>674.2621117002079</v>
       </c>
       <c r="N36" t="n">
-        <v>674.2621117002074</v>
+        <v>674.2621117002079</v>
       </c>
       <c r="O36" t="n">
-        <v>211.4657641677289</v>
+        <v>605.3280834444585</v>
       </c>
       <c r="P36" t="n">
-        <v>150.1915691550064</v>
+        <v>275.7974396365988</v>
       </c>
       <c r="Q36" t="n">
-        <v>72.51246490748122</v>
+        <v>49.97565579302608</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>55.01266455634052</v>
+        <v>224.1092797284143</v>
       </c>
       <c r="K38" t="n">
         <v>133.7007521391025</v>
       </c>
       <c r="L38" t="n">
-        <v>203.1421125849959</v>
+        <v>620.8033271354464</v>
       </c>
       <c r="M38" t="n">
-        <v>674.2621117002076</v>
+        <v>674.2621117002078</v>
       </c>
       <c r="N38" t="n">
-        <v>266.8595840466106</v>
+        <v>531.6495929740439</v>
       </c>
       <c r="O38" t="n">
-        <v>619.3181583750616</v>
+        <v>238.5179771123162</v>
       </c>
       <c r="P38" t="n">
-        <v>490.5187875112879</v>
+        <v>168.7200793398052</v>
       </c>
       <c r="Q38" t="n">
-        <v>226.9913622831747</v>
+        <v>78.04241306744606</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>13.75723991609047</v>
+        <v>18.79712469413485</v>
       </c>
       <c r="K39" t="n">
-        <v>102.4575816364469</v>
+        <v>366.9228186490255</v>
       </c>
       <c r="L39" t="n">
-        <v>431.0404559897273</v>
+        <v>555.3976534758339</v>
       </c>
       <c r="M39" t="n">
         <v>234.9220657245106</v>
       </c>
       <c r="N39" t="n">
-        <v>674.2621117002076</v>
+        <v>674.2621117002078</v>
       </c>
       <c r="O39" t="n">
-        <v>605.3280834444585</v>
+        <v>211.4657641677289</v>
       </c>
       <c r="P39" t="n">
         <v>468.6543377949436</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>81.4967610022502</v>
+        <v>224.1092797284143</v>
       </c>
       <c r="K41" t="n">
         <v>133.7007521391025</v>
@@ -37786,10 +37786,10 @@
         <v>620.8033271354464</v>
       </c>
       <c r="M41" t="n">
-        <v>674.2621117002076</v>
+        <v>531.6495929740439</v>
       </c>
       <c r="N41" t="n">
-        <v>674.2621117002076</v>
+        <v>674.2621117002078</v>
       </c>
       <c r="O41" t="n">
         <v>238.5179771123162</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>139.8482752564993</v>
+        <v>13.75723991609047</v>
       </c>
       <c r="K42" t="n">
-        <v>102.4575816364469</v>
+        <v>366.9228186490255</v>
       </c>
       <c r="L42" t="n">
-        <v>513.4403040582789</v>
+        <v>555.3976534758339</v>
       </c>
       <c r="M42" t="n">
-        <v>234.9220657245106</v>
+        <v>264.6678023706348</v>
       </c>
       <c r="N42" t="n">
         <v>255.6939405553983</v>
@@ -37877,7 +37877,7 @@
         <v>468.6543377949436</v>
       </c>
       <c r="Q42" t="n">
-        <v>260.0529435288752</v>
+        <v>49.97565579302608</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>55.01266455634052</v>
+        <v>224.1092797284143</v>
       </c>
       <c r="K44" t="n">
         <v>133.7007521391025</v>
       </c>
       <c r="L44" t="n">
-        <v>203.1421125849959</v>
+        <v>620.8033271354464</v>
       </c>
       <c r="M44" t="n">
-        <v>610.8960702560319</v>
+        <v>258.0240722971093</v>
       </c>
       <c r="N44" t="n">
-        <v>266.8595840466106</v>
+        <v>674.2621117002074</v>
       </c>
       <c r="O44" t="n">
-        <v>619.3181583750616</v>
+        <v>512.1434977892495</v>
       </c>
       <c r="P44" t="n">
-        <v>490.5187875112879</v>
+        <v>168.7200793398052</v>
       </c>
       <c r="Q44" t="n">
-        <v>290.3574037273507</v>
+        <v>78.04241306744606</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>139.8482752564993</v>
+        <v>13.75723991609047</v>
       </c>
       <c r="K45" t="n">
-        <v>366.9228186490255</v>
+        <v>102.4575816364469</v>
       </c>
       <c r="L45" t="n">
-        <v>521.9601089866702</v>
+        <v>310.1631786539683</v>
       </c>
       <c r="M45" t="n">
-        <v>674.2621117002076</v>
+        <v>674.2621117002074</v>
       </c>
       <c r="N45" t="n">
-        <v>255.6939405553983</v>
+        <v>674.2621117002074</v>
       </c>
       <c r="O45" t="n">
-        <v>211.4657641677289</v>
+        <v>605.3280834444585</v>
       </c>
       <c r="P45" t="n">
         <v>150.1915691550064</v>
       </c>
       <c r="Q45" t="n">
-        <v>260.0529435288752</v>
+        <v>49.97565579302608</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
